--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="award" sheetId="3" r:id="rId4"/>
     <sheet name="award_item" sheetId="7" r:id="rId5"/>
     <sheet name="weight" sheetId="6" r:id="rId6"/>
+    <sheet name="treasury_score|奖励积分" sheetId="8" r:id="rId7"/>
+    <sheet name="all_exchange_data|一键兑换" sheetId="9" r:id="rId8"/>
+    <sheet name="all_powerful|万能兑换" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">weight!$A$1:$D$61</definedName>
@@ -89,8 +92,111 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为空不给排行榜加积分
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数组：随机
+数字：固定值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为空积分翻倍参照base_score;不为空则参照自身（数字，不是表）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="745">
   <si>
     <t>id|</t>
   </si>
@@ -4658,10 +4764,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>福袋--深海</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -4669,9 +4771,6 @@
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>prop_gdn_xnfd</t>
-  </si>
-  <si>
     <t>prop_gdn_x</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4688,23 +4787,50 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_gdn_x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gdn_n</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gdn_k</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>box_id|宝箱id</t>
+  </si>
+  <si>
+    <t>rank_type|排行榜类型</t>
+  </si>
+  <si>
+    <t>prop_type|积分类型</t>
+  </si>
+  <si>
+    <t>base_score|基础积分</t>
+  </si>
+  <si>
+    <t>treasury_score|额外积分</t>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+  </si>
+  <si>
+    <t>award_rate|翻倍倍数</t>
+  </si>
+  <si>
+    <t>key|一件兑换key</t>
+  </si>
+  <si>
+    <t>min|最小box_id</t>
+  </si>
+  <si>
+    <t>max|最大box_id</t>
+  </si>
+  <si>
+    <t>|备注</t>
+  </si>
+  <si>
+    <t>价值排序box_id对应的奖励价值小-&gt;大</t>
+  </si>
+  <si>
+    <t>all_powerful_type|万能道具类型</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4811,6 +4937,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4845,13 +4994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4895,7 +5044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5015,15 +5164,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5032,7 +5180,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5041,22 +5189,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5338,9 +5486,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5361,7 +5509,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7252,10 +7400,10 @@
       <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="50">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7284,10 +7432,10 @@
       <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="50">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7316,10 +7464,10 @@
       <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="50">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7348,10 +7496,10 @@
       <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7380,10 +7528,10 @@
       <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7412,10 +7560,10 @@
       <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7444,10 +7592,10 @@
       <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="50">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -7549,61 +7697,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="50" customFormat="1">
-      <c r="A74" s="50">
+    <row r="74" spans="1:12" s="49" customFormat="1">
+      <c r="A74" s="49">
         <v>73</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="C74" s="50">
+      <c r="C74" s="49">
         <v>1612828800</v>
       </c>
-      <c r="D74" s="50">
+      <c r="D74" s="49">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="52">
         <v>68</v>
       </c>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="50">
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="49">
         <v>73</v>
       </c>
-      <c r="L74" s="50">
+      <c r="L74" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="50" customFormat="1">
-      <c r="A75" s="50">
-        <v>74</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="C75" s="50">
-        <v>1612828800</v>
-      </c>
-      <c r="D75" s="50">
-        <v>1613404799</v>
-      </c>
-      <c r="E75" s="53">
-        <v>69</v>
-      </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="50">
-        <v>74</v>
-      </c>
-      <c r="L75" s="50">
-        <v>1</v>
-      </c>
+    <row r="75" spans="1:12" s="18" customFormat="1">
+      <c r="E75" s="28"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7618,9 +7746,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8308,7 +8436,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="43" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8322,7 +8450,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="43" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8336,7 +8464,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="43" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8582,32 +8710,22 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="45">
+      <c r="A69" s="44">
         <v>68</v>
       </c>
-      <c r="B69" s="45">
+      <c r="B69" s="44">
         <v>68</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>728</v>
-      </c>
-      <c r="D69" s="50">
+      <c r="C69" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="D69" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="45">
-        <v>69</v>
-      </c>
-      <c r="B70" s="45">
-        <v>69</v>
-      </c>
-      <c r="C70" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="D70" s="50">
-        <v>1</v>
-      </c>
+    <row r="70" spans="1:4" s="17" customFormat="1">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8664,10 +8782,10 @@
   <dimension ref="A1:E462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B437" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B441" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B446" sqref="B446"/>
+      <selection pane="bottomRight" activeCell="C474" sqref="C474:C477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13582,129 +13700,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="52" customFormat="1">
-      <c r="A351" s="52">
+    <row r="351" spans="1:4" s="51" customFormat="1">
+      <c r="A351" s="51">
         <v>350</v>
       </c>
-      <c r="B351" s="52">
+      <c r="B351" s="51">
         <v>57</v>
       </c>
-      <c r="C351" s="52">
+      <c r="C351" s="51">
         <v>11824</v>
       </c>
-      <c r="D351" s="52">
+      <c r="D351" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="52" customFormat="1">
-      <c r="A352" s="52">
+    <row r="352" spans="1:4" s="51" customFormat="1">
+      <c r="A352" s="51">
         <v>351</v>
       </c>
-      <c r="B352" s="52">
+      <c r="B352" s="51">
         <v>57</v>
       </c>
-      <c r="C352" s="52">
+      <c r="C352" s="51">
         <v>11825</v>
       </c>
-      <c r="D352" s="52">
+      <c r="D352" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="52" customFormat="1">
-      <c r="A353" s="52">
+    <row r="353" spans="1:4" s="51" customFormat="1">
+      <c r="A353" s="51">
         <v>352</v>
       </c>
-      <c r="B353" s="52">
+      <c r="B353" s="51">
         <v>57</v>
       </c>
-      <c r="C353" s="52">
+      <c r="C353" s="51">
         <v>11826</v>
       </c>
-      <c r="D353" s="52">
+      <c r="D353" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="52" customFormat="1">
-      <c r="A354" s="52">
+    <row r="354" spans="1:4" s="51" customFormat="1">
+      <c r="A354" s="51">
         <v>353</v>
       </c>
-      <c r="B354" s="52">
+      <c r="B354" s="51">
         <v>57</v>
       </c>
-      <c r="C354" s="52">
+      <c r="C354" s="51">
         <v>11827</v>
       </c>
-      <c r="D354" s="52">
+      <c r="D354" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="52" customFormat="1">
-      <c r="A355" s="52">
+    <row r="355" spans="1:4" s="51" customFormat="1">
+      <c r="A355" s="51">
         <v>354</v>
       </c>
-      <c r="B355" s="52">
+      <c r="B355" s="51">
         <v>57</v>
       </c>
-      <c r="C355" s="52">
+      <c r="C355" s="51">
         <v>11828</v>
       </c>
-      <c r="D355" s="52">
+      <c r="D355" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="52" customFormat="1">
-      <c r="A356" s="52">
+    <row r="356" spans="1:4" s="51" customFormat="1">
+      <c r="A356" s="51">
         <v>355</v>
       </c>
-      <c r="B356" s="52">
+      <c r="B356" s="51">
         <v>57</v>
       </c>
-      <c r="C356" s="52">
+      <c r="C356" s="51">
         <v>11829</v>
       </c>
-      <c r="D356" s="52">
+      <c r="D356" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="52" customFormat="1">
-      <c r="A357" s="52">
+    <row r="357" spans="1:4" s="51" customFormat="1">
+      <c r="A357" s="51">
         <v>356</v>
       </c>
-      <c r="B357" s="52">
+      <c r="B357" s="51">
         <v>57</v>
       </c>
-      <c r="C357" s="52">
+      <c r="C357" s="51">
         <v>11830</v>
       </c>
-      <c r="D357" s="52">
+      <c r="D357" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="52" customFormat="1">
-      <c r="A358" s="52">
+    <row r="358" spans="1:4" s="51" customFormat="1">
+      <c r="A358" s="51">
         <v>357</v>
       </c>
-      <c r="B358" s="52">
+      <c r="B358" s="51">
         <v>57</v>
       </c>
-      <c r="C358" s="52">
+      <c r="C358" s="51">
         <v>11831</v>
       </c>
-      <c r="D358" s="52">
+      <c r="D358" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="52" customFormat="1">
-      <c r="A359" s="52">
+    <row r="359" spans="1:4" s="51" customFormat="1">
+      <c r="A359" s="51">
         <v>358</v>
       </c>
-      <c r="B359" s="52">
+      <c r="B359" s="51">
         <v>57</v>
       </c>
-      <c r="C359" s="52">
+      <c r="C359" s="51">
         <v>11832</v>
       </c>
-      <c r="D359" s="52">
+      <c r="D359" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13712,13 +13830,13 @@
       <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="52">
+      <c r="B360" s="51">
         <v>58</v>
       </c>
       <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="52">
+      <c r="D360" s="51">
         <v>20</v>
       </c>
     </row>
@@ -13726,13 +13844,13 @@
       <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="52">
+      <c r="B361" s="51">
         <v>58</v>
       </c>
       <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="52">
+      <c r="D361" s="51">
         <v>25</v>
       </c>
     </row>
@@ -13740,13 +13858,13 @@
       <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="52">
+      <c r="B362" s="51">
         <v>58</v>
       </c>
       <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="52">
+      <c r="D362" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13754,13 +13872,13 @@
       <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="52">
+      <c r="B363" s="51">
         <v>58</v>
       </c>
       <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="52">
+      <c r="D363" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13768,13 +13886,13 @@
       <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="52">
+      <c r="B364" s="51">
         <v>58</v>
       </c>
       <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="52">
+      <c r="D364" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13782,13 +13900,13 @@
       <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="52">
+      <c r="B365" s="51">
         <v>58</v>
       </c>
       <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="52">
+      <c r="D365" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13796,13 +13914,13 @@
       <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="52">
+      <c r="B366" s="51">
         <v>58</v>
       </c>
       <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="52">
+      <c r="D366" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13810,13 +13928,13 @@
       <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="52">
+      <c r="B367" s="51">
         <v>58</v>
       </c>
       <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="52">
+      <c r="D367" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13824,13 +13942,13 @@
       <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="52">
+      <c r="B368" s="51">
         <v>58</v>
       </c>
       <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="52">
+      <c r="D368" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13838,13 +13956,13 @@
       <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="52">
+      <c r="B369" s="51">
         <v>59</v>
       </c>
       <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="52">
+      <c r="D369" s="51">
         <v>20</v>
       </c>
     </row>
@@ -13852,13 +13970,13 @@
       <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="52">
+      <c r="B370" s="51">
         <v>59</v>
       </c>
       <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="52">
+      <c r="D370" s="51">
         <v>25</v>
       </c>
     </row>
@@ -13866,13 +13984,13 @@
       <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="52">
+      <c r="B371" s="51">
         <v>59</v>
       </c>
       <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="52">
+      <c r="D371" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13880,13 +13998,13 @@
       <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="52">
+      <c r="B372" s="51">
         <v>59</v>
       </c>
       <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="52">
+      <c r="D372" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13894,13 +14012,13 @@
       <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="52">
+      <c r="B373" s="51">
         <v>59</v>
       </c>
       <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="52">
+      <c r="D373" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13908,13 +14026,13 @@
       <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="52">
+      <c r="B374" s="51">
         <v>59</v>
       </c>
       <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="52">
+      <c r="D374" s="51">
         <v>5</v>
       </c>
     </row>
@@ -13922,13 +14040,13 @@
       <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="52">
+      <c r="B375" s="51">
         <v>59</v>
       </c>
       <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="52">
+      <c r="D375" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13936,13 +14054,13 @@
       <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="52">
+      <c r="B376" s="51">
         <v>59</v>
       </c>
       <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="52">
+      <c r="D376" s="51">
         <v>10</v>
       </c>
     </row>
@@ -13950,13 +14068,13 @@
       <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="52">
+      <c r="B377" s="51">
         <v>59</v>
       </c>
       <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="52">
+      <c r="D377" s="51">
         <v>5</v>
       </c>
     </row>
@@ -15042,13 +15160,13 @@
       <c r="A455" s="13">
         <v>454</v>
       </c>
-      <c r="B455" s="46">
+      <c r="B455" s="45">
         <v>73</v>
       </c>
-      <c r="C455" s="46">
+      <c r="C455" s="45">
         <v>11930</v>
       </c>
-      <c r="D455" s="46">
+      <c r="D455" s="45">
         <v>30</v>
       </c>
     </row>
@@ -15056,13 +15174,13 @@
       <c r="A456" s="13">
         <v>455</v>
       </c>
-      <c r="B456" s="46">
+      <c r="B456" s="45">
         <v>73</v>
       </c>
-      <c r="C456" s="46">
+      <c r="C456" s="45">
         <v>11931</v>
       </c>
-      <c r="D456" s="46">
+      <c r="D456" s="45">
         <v>30</v>
       </c>
     </row>
@@ -15070,13 +15188,13 @@
       <c r="A457" s="13">
         <v>456</v>
       </c>
-      <c r="B457" s="46">
+      <c r="B457" s="45">
         <v>73</v>
       </c>
-      <c r="C457" s="46">
+      <c r="C457" s="45">
         <v>11932</v>
       </c>
-      <c r="D457" s="46">
+      <c r="D457" s="45">
         <v>10</v>
       </c>
     </row>
@@ -15084,72 +15202,20 @@
       <c r="A458" s="13">
         <v>457</v>
       </c>
-      <c r="B458" s="46">
+      <c r="B458" s="45">
         <v>73</v>
       </c>
-      <c r="C458" s="46">
+      <c r="C458" s="45">
         <v>11933</v>
       </c>
-      <c r="D458" s="46">
+      <c r="D458" s="45">
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="13">
-        <v>458</v>
-      </c>
-      <c r="B459" s="55">
-        <v>74</v>
-      </c>
-      <c r="C459" s="55">
-        <v>11934</v>
-      </c>
-      <c r="D459" s="55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="13">
-        <v>459</v>
-      </c>
-      <c r="B460" s="55">
-        <v>74</v>
-      </c>
-      <c r="C460" s="55">
-        <v>11935</v>
-      </c>
-      <c r="D460" s="55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="13">
-        <v>460</v>
-      </c>
-      <c r="B461" s="55">
-        <v>74</v>
-      </c>
-      <c r="C461" s="55">
-        <v>11936</v>
-      </c>
-      <c r="D461" s="55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="13">
-        <v>461</v>
-      </c>
-      <c r="B462" s="55">
-        <v>74</v>
-      </c>
-      <c r="C462" s="55">
-        <v>11937</v>
-      </c>
-      <c r="D462" s="55">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="459" spans="1:4" s="13" customFormat="1"/>
+    <row r="460" spans="1:4" s="13" customFormat="1"/>
+    <row r="461" spans="1:4" s="13" customFormat="1"/>
+    <row r="462" spans="1:4" s="13" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15161,9 +15227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F462"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E461" sqref="E461"/>
+      <selection pane="bottomLeft" activeCell="H461" sqref="H461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15176,10 +15242,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -21208,7 +21274,7 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="54" t="s">
+      <c r="D384" s="53" t="s">
         <v>675</v>
       </c>
       <c r="E384" s="21" t="s">
@@ -21225,7 +21291,7 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="54" t="s">
+      <c r="D385" s="53" t="s">
         <v>676</v>
       </c>
       <c r="E385" s="21" t="s">
@@ -22348,124 +22414,88 @@
       </c>
     </row>
     <row r="455" spans="1:5" ht="16.5">
-      <c r="A455" s="45">
+      <c r="A455" s="44">
         <v>454</v>
       </c>
-      <c r="B455" s="46">
+      <c r="B455" s="45">
         <v>11930</v>
       </c>
-      <c r="C455" s="46"/>
-      <c r="D455" s="57" t="s">
+      <c r="C455" s="45"/>
+      <c r="D455" s="54" t="s">
+        <v>728</v>
+      </c>
+      <c r="E455" s="46" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="16.5">
+      <c r="A456" s="44">
+        <v>455</v>
+      </c>
+      <c r="B456" s="45">
+        <v>11931</v>
+      </c>
+      <c r="C456" s="45"/>
+      <c r="D456" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="E456" s="46" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="16.5">
+      <c r="A457" s="44">
+        <v>456</v>
+      </c>
+      <c r="B457" s="45">
+        <v>11932</v>
+      </c>
+      <c r="C457" s="45"/>
+      <c r="D457" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="E455" s="47" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="16.5">
-      <c r="A456" s="45">
-        <v>455</v>
-      </c>
-      <c r="B456" s="46">
-        <v>11931</v>
-      </c>
-      <c r="C456" s="46"/>
-      <c r="D456" s="57" t="s">
+      <c r="E457" s="46" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="16.5">
+      <c r="A458" s="44">
+        <v>457</v>
+      </c>
+      <c r="B458" s="45">
+        <v>11933</v>
+      </c>
+      <c r="C458" s="45"/>
+      <c r="D458" s="54" t="s">
         <v>731</v>
       </c>
-      <c r="E456" s="47" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="16.5">
-      <c r="A457" s="45">
-        <v>456</v>
-      </c>
-      <c r="B457" s="46">
-        <v>11932</v>
-      </c>
-      <c r="C457" s="46"/>
-      <c r="D457" s="57" t="s">
-        <v>732</v>
-      </c>
-      <c r="E457" s="47" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="16.5">
-      <c r="A458" s="45">
-        <v>457</v>
-      </c>
-      <c r="B458" s="46">
-        <v>11933</v>
-      </c>
-      <c r="C458" s="46"/>
-      <c r="D458" s="57" t="s">
-        <v>733</v>
-      </c>
-      <c r="E458" s="47" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" ht="16.5">
-      <c r="A459" s="43">
-        <v>458</v>
-      </c>
-      <c r="B459" s="55">
-        <v>11934</v>
-      </c>
-      <c r="C459" s="55"/>
-      <c r="D459" s="58" t="s">
-        <v>734</v>
-      </c>
-      <c r="E459" s="56" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="16.5">
-      <c r="A460" s="43">
-        <v>459</v>
-      </c>
-      <c r="B460" s="55">
-        <v>11935</v>
-      </c>
-      <c r="C460" s="55"/>
-      <c r="D460" s="58" t="s">
-        <v>735</v>
-      </c>
-      <c r="E460" s="56" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="16.5">
-      <c r="A461" s="43">
-        <v>460</v>
-      </c>
-      <c r="B461" s="55">
-        <v>11936</v>
-      </c>
-      <c r="C461" s="55"/>
-      <c r="D461" s="58" t="s">
-        <v>736</v>
-      </c>
-      <c r="E461" s="56" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="16.5">
-      <c r="A462" s="43">
-        <v>461</v>
-      </c>
-      <c r="B462" s="55">
-        <v>11937</v>
-      </c>
-      <c r="C462" s="55"/>
-      <c r="D462" s="58" t="s">
-        <v>733</v>
-      </c>
-      <c r="E462" s="56" t="s">
-        <v>727</v>
-      </c>
+      <c r="E458" s="46" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="B459" s="13"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="57"/>
+      <c r="E459" s="21"/>
+    </row>
+    <row r="460" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="B460" s="13"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="57"/>
+      <c r="E460" s="21"/>
+    </row>
+    <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="B461" s="13"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="57"/>
+      <c r="E461" s="21"/>
+    </row>
+    <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="B462" s="13"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="57"/>
+      <c r="E462" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -23540,4 +23570,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5">
+      <c r="A1" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27">
+      <c r="A1" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="56" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8245,7 +8245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9231,7 +9231,7 @@
         <v>747</v>
       </c>
       <c r="D70" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -9317,10 +9317,10 @@
   <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B466" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D496" sqref="D496"/>
+      <selection pane="bottomRight" activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16305,7 +16305,7 @@
   <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="734">
   <si>
     <t>id|</t>
   </si>
@@ -4651,6 +4651,38 @@
       </rPr>
       <t>00,300</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋--正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋--深海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnfd_0</t>
+  </si>
+  <si>
+    <t>prop_xnfd_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_3</t>
+  </si>
+  <si>
+    <t>1,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4766,7 +4798,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4799,12 +4831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4812,24 +4838,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4873,7 +4881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4975,9 +4983,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4997,79 +5002,41 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5349,11 +5316,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5374,7 +5341,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6590,7 +6557,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6646,7 +6613,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="18">
@@ -6758,7 +6725,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6790,7 +6757,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6822,7 +6789,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6854,7 +6821,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6886,7 +6853,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6918,7 +6885,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6950,7 +6917,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7262,13 +7229,13 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C64" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="51">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7294,13 +7261,13 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="71">
+      <c r="C65" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="71">
+      <c r="D65" s="51">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7326,13 +7293,13 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="71">
+      <c r="D66" s="51">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7358,13 +7325,13 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="51">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7390,13 +7357,13 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="51">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7422,13 +7389,13 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="51">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="51">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7454,13 +7421,13 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="51">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="51">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -7559,6 +7526,62 @@
         <v>72</v>
       </c>
       <c r="L73" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="50" customFormat="1">
+      <c r="A74" s="50">
+        <v>73</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>725</v>
+      </c>
+      <c r="C74" s="50">
+        <v>1612828800</v>
+      </c>
+      <c r="D74" s="50">
+        <v>1613404799</v>
+      </c>
+      <c r="E74" s="53">
+        <v>68</v>
+      </c>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="50">
+        <v>73</v>
+      </c>
+      <c r="L74" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="50" customFormat="1">
+      <c r="A75" s="50">
+        <v>74</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="C75" s="50">
+        <v>1612828800</v>
+      </c>
+      <c r="D75" s="50">
+        <v>1613404799</v>
+      </c>
+      <c r="E75" s="53">
+        <v>69</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="50">
+        <v>74</v>
+      </c>
+      <c r="L75" s="50">
         <v>1</v>
       </c>
     </row>
@@ -7573,11 +7596,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66:D68"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8083,7 +8106,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8111,7 +8134,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8125,7 +8148,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="40" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8139,7 +8162,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8153,7 +8176,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8265,7 +8288,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="44" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8279,7 +8302,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="44" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8293,7 +8316,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="44" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8314,227 +8337,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="47" customFormat="1">
-      <c r="A53" s="47">
+    <row r="53" spans="1:4" s="17" customFormat="1">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="17">
         <v>52</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="47" customFormat="1">
-      <c r="A54" s="47">
+    <row r="54" spans="1:4" s="17" customFormat="1">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="17">
         <v>53</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="47" customFormat="1">
-      <c r="A55" s="47">
+    <row r="55" spans="1:4" s="17" customFormat="1">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="17">
         <v>54</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="47">
+    <row r="56" spans="1:4" s="17" customFormat="1">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="17">
         <v>55</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" s="17" customFormat="1">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" s="17" customFormat="1">
       <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" s="17" customFormat="1">
       <c r="A59" s="17">
         <v>58</v>
       </c>
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" s="17" customFormat="1">
       <c r="A60" s="17">
         <v>59</v>
       </c>
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" s="17" customFormat="1">
       <c r="A61" s="17">
         <v>60</v>
       </c>
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" s="17" customFormat="1">
       <c r="A62" s="17">
         <v>61</v>
       </c>
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" s="17" customFormat="1">
       <c r="A63" s="17">
         <v>62</v>
       </c>
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" s="17" customFormat="1">
       <c r="A64" s="17">
         <v>63</v>
       </c>
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" s="17" customFormat="1">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" s="17" customFormat="1">
       <c r="A66" s="17">
         <v>65</v>
       </c>
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" s="17" customFormat="1">
       <c r="A67" s="17">
         <v>66</v>
       </c>
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" s="17" customFormat="1">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="70">
+      <c r="D68" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="45">
+        <v>68</v>
+      </c>
+      <c r="B69" s="45">
+        <v>59</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="D69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="45">
+        <v>69</v>
+      </c>
+      <c r="B70" s="45">
+        <v>59</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="D70" s="50">
         <v>1</v>
       </c>
     </row>
@@ -8590,13 +8641,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E444" sqref="E444"/>
+      <selection pane="bottomRight" activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13511,1460 +13562,1572 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="55" customFormat="1">
-      <c r="A351" s="55">
+    <row r="351" spans="1:4" s="52" customFormat="1">
+      <c r="A351" s="52">
         <v>350</v>
       </c>
-      <c r="B351" s="55">
+      <c r="B351" s="52">
         <v>57</v>
       </c>
-      <c r="C351" s="55">
+      <c r="C351" s="52">
         <v>11824</v>
       </c>
-      <c r="D351" s="55">
+      <c r="D351" s="52">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="55" customFormat="1">
-      <c r="A352" s="55">
+    <row r="352" spans="1:4" s="52" customFormat="1">
+      <c r="A352" s="52">
         <v>351</v>
       </c>
-      <c r="B352" s="55">
+      <c r="B352" s="52">
         <v>57</v>
       </c>
-      <c r="C352" s="55">
+      <c r="C352" s="52">
         <v>11825</v>
       </c>
-      <c r="D352" s="55">
+      <c r="D352" s="52">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="55" customFormat="1">
-      <c r="A353" s="55">
+    <row r="353" spans="1:4" s="52" customFormat="1">
+      <c r="A353" s="52">
         <v>352</v>
       </c>
-      <c r="B353" s="55">
+      <c r="B353" s="52">
         <v>57</v>
       </c>
-      <c r="C353" s="55">
+      <c r="C353" s="52">
         <v>11826</v>
       </c>
-      <c r="D353" s="55">
+      <c r="D353" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="55" customFormat="1">
-      <c r="A354" s="55">
+    <row r="354" spans="1:4" s="52" customFormat="1">
+      <c r="A354" s="52">
         <v>353</v>
       </c>
-      <c r="B354" s="55">
+      <c r="B354" s="52">
         <v>57</v>
       </c>
-      <c r="C354" s="55">
+      <c r="C354" s="52">
         <v>11827</v>
       </c>
-      <c r="D354" s="55">
+      <c r="D354" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="55" customFormat="1">
-      <c r="A355" s="55">
+    <row r="355" spans="1:4" s="52" customFormat="1">
+      <c r="A355" s="52">
         <v>354</v>
       </c>
-      <c r="B355" s="55">
+      <c r="B355" s="52">
         <v>57</v>
       </c>
-      <c r="C355" s="55">
+      <c r="C355" s="52">
         <v>11828</v>
       </c>
-      <c r="D355" s="55">
+      <c r="D355" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="55" customFormat="1">
-      <c r="A356" s="55">
+    <row r="356" spans="1:4" s="52" customFormat="1">
+      <c r="A356" s="52">
         <v>355</v>
       </c>
-      <c r="B356" s="55">
+      <c r="B356" s="52">
         <v>57</v>
       </c>
-      <c r="C356" s="55">
+      <c r="C356" s="52">
         <v>11829</v>
       </c>
-      <c r="D356" s="55">
+      <c r="D356" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="55" customFormat="1">
-      <c r="A357" s="55">
+    <row r="357" spans="1:4" s="52" customFormat="1">
+      <c r="A357" s="52">
         <v>356</v>
       </c>
-      <c r="B357" s="55">
+      <c r="B357" s="52">
         <v>57</v>
       </c>
-      <c r="C357" s="55">
+      <c r="C357" s="52">
         <v>11830</v>
       </c>
-      <c r="D357" s="55">
+      <c r="D357" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="55" customFormat="1">
-      <c r="A358" s="55">
+    <row r="358" spans="1:4" s="52" customFormat="1">
+      <c r="A358" s="52">
         <v>357</v>
       </c>
-      <c r="B358" s="55">
+      <c r="B358" s="52">
         <v>57</v>
       </c>
-      <c r="C358" s="55">
+      <c r="C358" s="52">
         <v>11831</v>
       </c>
-      <c r="D358" s="55">
+      <c r="D358" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="55" customFormat="1">
-      <c r="A359" s="55">
+    <row r="359" spans="1:4" s="52" customFormat="1">
+      <c r="A359" s="52">
         <v>358</v>
       </c>
-      <c r="B359" s="55">
+      <c r="B359" s="52">
         <v>57</v>
       </c>
-      <c r="C359" s="55">
+      <c r="C359" s="52">
         <v>11832</v>
       </c>
-      <c r="D359" s="55">
+      <c r="D359" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="50" customFormat="1">
-      <c r="A360" s="50">
+    <row r="360" spans="1:4" s="13" customFormat="1">
+      <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="56">
+      <c r="B360" s="52">
         <v>58</v>
       </c>
-      <c r="C360" s="50">
+      <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="56">
+      <c r="D360" s="52">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="50" customFormat="1">
-      <c r="A361" s="50">
+    <row r="361" spans="1:4" s="13" customFormat="1">
+      <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="56">
+      <c r="B361" s="52">
         <v>58</v>
       </c>
-      <c r="C361" s="50">
+      <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="56">
+      <c r="D361" s="52">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="50" customFormat="1">
-      <c r="A362" s="50">
+    <row r="362" spans="1:4" s="13" customFormat="1">
+      <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="56">
+      <c r="B362" s="52">
         <v>58</v>
       </c>
-      <c r="C362" s="50">
+      <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="56">
+      <c r="D362" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="50" customFormat="1">
-      <c r="A363" s="50">
+    <row r="363" spans="1:4" s="13" customFormat="1">
+      <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="56">
+      <c r="B363" s="52">
         <v>58</v>
       </c>
-      <c r="C363" s="50">
+      <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="56">
+      <c r="D363" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="50" customFormat="1">
-      <c r="A364" s="50">
+    <row r="364" spans="1:4" s="13" customFormat="1">
+      <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="56">
+      <c r="B364" s="52">
         <v>58</v>
       </c>
-      <c r="C364" s="50">
+      <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="56">
+      <c r="D364" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="50" customFormat="1">
-      <c r="A365" s="50">
+    <row r="365" spans="1:4" s="13" customFormat="1">
+      <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="56">
+      <c r="B365" s="52">
         <v>58</v>
       </c>
-      <c r="C365" s="50">
+      <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="56">
+      <c r="D365" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="50" customFormat="1">
-      <c r="A366" s="50">
+    <row r="366" spans="1:4" s="13" customFormat="1">
+      <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="56">
+      <c r="B366" s="52">
         <v>58</v>
       </c>
-      <c r="C366" s="50">
+      <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="56">
+      <c r="D366" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="50" customFormat="1">
-      <c r="A367" s="50">
+    <row r="367" spans="1:4" s="13" customFormat="1">
+      <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="56">
+      <c r="B367" s="52">
         <v>58</v>
       </c>
-      <c r="C367" s="50">
+      <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="56">
+      <c r="D367" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="50" customFormat="1">
-      <c r="A368" s="50">
+    <row r="368" spans="1:4" s="13" customFormat="1">
+      <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="56">
+      <c r="B368" s="52">
         <v>58</v>
       </c>
-      <c r="C368" s="50">
+      <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="56">
+      <c r="D368" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="45" customFormat="1">
-      <c r="A369" s="45">
+    <row r="369" spans="1:4" s="13" customFormat="1">
+      <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="55">
+      <c r="B369" s="52">
         <v>59</v>
       </c>
-      <c r="C369" s="45">
+      <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="55">
+      <c r="D369" s="52">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="45" customFormat="1">
-      <c r="A370" s="45">
+    <row r="370" spans="1:4" s="13" customFormat="1">
+      <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="55">
+      <c r="B370" s="52">
         <v>59</v>
       </c>
-      <c r="C370" s="45">
+      <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="55">
+      <c r="D370" s="52">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="45" customFormat="1">
-      <c r="A371" s="45">
+    <row r="371" spans="1:4" s="13" customFormat="1">
+      <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="55">
+      <c r="B371" s="52">
         <v>59</v>
       </c>
-      <c r="C371" s="45">
+      <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="55">
+      <c r="D371" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="45" customFormat="1">
-      <c r="A372" s="45">
+    <row r="372" spans="1:4" s="13" customFormat="1">
+      <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="55">
+      <c r="B372" s="52">
         <v>59</v>
       </c>
-      <c r="C372" s="45">
+      <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="55">
+      <c r="D372" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="45" customFormat="1">
-      <c r="A373" s="45">
+    <row r="373" spans="1:4" s="13" customFormat="1">
+      <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="55">
+      <c r="B373" s="52">
         <v>59</v>
       </c>
-      <c r="C373" s="45">
+      <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="55">
+      <c r="D373" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="45" customFormat="1">
-      <c r="A374" s="45">
+    <row r="374" spans="1:4" s="13" customFormat="1">
+      <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="55">
+      <c r="B374" s="52">
         <v>59</v>
       </c>
-      <c r="C374" s="45">
+      <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="55">
+      <c r="D374" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="45" customFormat="1">
-      <c r="A375" s="45">
+    <row r="375" spans="1:4" s="13" customFormat="1">
+      <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="55">
+      <c r="B375" s="52">
         <v>59</v>
       </c>
-      <c r="C375" s="45">
+      <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="55">
+      <c r="D375" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="45" customFormat="1">
-      <c r="A376" s="45">
+    <row r="376" spans="1:4" s="13" customFormat="1">
+      <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="55">
+      <c r="B376" s="52">
         <v>59</v>
       </c>
-      <c r="C376" s="45">
+      <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="55">
+      <c r="D376" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="45" customFormat="1">
-      <c r="A377" s="45">
+    <row r="377" spans="1:4" s="13" customFormat="1">
+      <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="55">
+      <c r="B377" s="52">
         <v>59</v>
       </c>
-      <c r="C377" s="45">
+      <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="55">
+      <c r="D377" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="57" customFormat="1">
-      <c r="A378" s="57">
+    <row r="378" spans="1:4" s="13" customFormat="1">
+      <c r="A378" s="13">
         <v>377</v>
       </c>
-      <c r="B378" s="57">
+      <c r="B378" s="13">
         <v>60</v>
       </c>
-      <c r="C378" s="57">
+      <c r="C378" s="13">
         <v>11851</v>
       </c>
-      <c r="D378" s="57">
+      <c r="D378" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="57" customFormat="1">
-      <c r="A379" s="57">
+    <row r="379" spans="1:4" s="13" customFormat="1">
+      <c r="A379" s="13">
         <v>378</v>
       </c>
-      <c r="B379" s="57">
+      <c r="B379" s="13">
         <v>60</v>
       </c>
-      <c r="C379" s="57">
+      <c r="C379" s="13">
         <v>11852</v>
       </c>
-      <c r="D379" s="57">
+      <c r="D379" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="57" customFormat="1">
-      <c r="A380" s="57">
+    <row r="380" spans="1:4" s="13" customFormat="1">
+      <c r="A380" s="13">
         <v>379</v>
       </c>
-      <c r="B380" s="57">
+      <c r="B380" s="13">
         <v>60</v>
       </c>
-      <c r="C380" s="57">
+      <c r="C380" s="13">
         <v>11853</v>
       </c>
-      <c r="D380" s="57">
+      <c r="D380" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="57" customFormat="1">
-      <c r="A381" s="57">
+    <row r="381" spans="1:4" s="13" customFormat="1">
+      <c r="A381" s="13">
         <v>380</v>
       </c>
-      <c r="B381" s="57">
+      <c r="B381" s="13">
         <v>60</v>
       </c>
-      <c r="C381" s="57">
+      <c r="C381" s="13">
         <v>11854</v>
       </c>
-      <c r="D381" s="57">
+      <c r="D381" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="57" customFormat="1">
-      <c r="A382" s="57">
+    <row r="382" spans="1:4" s="13" customFormat="1">
+      <c r="A382" s="13">
         <v>381</v>
       </c>
-      <c r="B382" s="57">
+      <c r="B382" s="13">
         <v>60</v>
       </c>
-      <c r="C382" s="57">
+      <c r="C382" s="13">
         <v>11855</v>
       </c>
-      <c r="D382" s="57">
+      <c r="D382" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="57" customFormat="1">
-      <c r="A383" s="57">
+    <row r="383" spans="1:4" s="13" customFormat="1">
+      <c r="A383" s="13">
         <v>382</v>
       </c>
-      <c r="B383" s="57">
+      <c r="B383" s="13">
         <v>60</v>
       </c>
-      <c r="C383" s="57">
+      <c r="C383" s="13">
         <v>11856</v>
       </c>
-      <c r="D383" s="57">
+      <c r="D383" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" s="13" customFormat="1">
       <c r="A384" s="13">
         <v>383</v>
       </c>
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="57">
+      <c r="C384" s="13">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" s="13" customFormat="1">
       <c r="A385" s="13">
         <v>384</v>
       </c>
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="57">
+      <c r="C385" s="13">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" s="13" customFormat="1">
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="66">
+      <c r="B386" s="13">
         <v>63</v>
       </c>
-      <c r="C386" s="66">
+      <c r="C386" s="13">
         <v>11859</v>
       </c>
-      <c r="D386" s="66">
+      <c r="D386" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" s="13" customFormat="1">
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="66">
+      <c r="B387" s="13">
         <v>63</v>
       </c>
-      <c r="C387" s="66">
+      <c r="C387" s="13">
         <v>11860</v>
       </c>
-      <c r="D387" s="66">
+      <c r="D387" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" s="13" customFormat="1">
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="66">
+      <c r="B388" s="13">
         <v>63</v>
       </c>
-      <c r="C388" s="66">
+      <c r="C388" s="13">
         <v>11861</v>
       </c>
-      <c r="D388" s="66">
+      <c r="D388" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" s="13" customFormat="1">
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="66">
+      <c r="B389" s="13">
         <v>63</v>
       </c>
-      <c r="C389" s="66">
+      <c r="C389" s="13">
         <v>11862</v>
       </c>
-      <c r="D389" s="66">
+      <c r="D389" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" s="13" customFormat="1">
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="66">
+      <c r="B390" s="13">
         <v>63</v>
       </c>
-      <c r="C390" s="66">
+      <c r="C390" s="13">
         <v>11863</v>
       </c>
-      <c r="D390" s="66">
+      <c r="D390" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" s="13" customFormat="1">
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="66">
+      <c r="B391" s="13">
         <v>63</v>
       </c>
-      <c r="C391" s="66">
+      <c r="C391" s="13">
         <v>11864</v>
       </c>
-      <c r="D391" s="66">
+      <c r="D391" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" s="13" customFormat="1">
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="66">
+      <c r="B392" s="13">
         <v>64</v>
       </c>
-      <c r="C392" s="66">
+      <c r="C392" s="13">
         <v>11865</v>
       </c>
-      <c r="D392" s="66">
+      <c r="D392" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" s="13" customFormat="1">
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="66">
+      <c r="B393" s="13">
         <v>64</v>
       </c>
-      <c r="C393" s="66">
+      <c r="C393" s="13">
         <v>11866</v>
       </c>
-      <c r="D393" s="66">
+      <c r="D393" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" s="13" customFormat="1">
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="66">
+      <c r="B394" s="13">
         <v>64</v>
       </c>
-      <c r="C394" s="66">
+      <c r="C394" s="13">
         <v>11867</v>
       </c>
-      <c r="D394" s="66">
+      <c r="D394" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" s="13" customFormat="1">
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="66">
+      <c r="B395" s="13">
         <v>64</v>
       </c>
-      <c r="C395" s="66">
+      <c r="C395" s="13">
         <v>11868</v>
       </c>
-      <c r="D395" s="66">
+      <c r="D395" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" s="13" customFormat="1">
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="66">
+      <c r="B396" s="13">
         <v>64</v>
       </c>
-      <c r="C396" s="66">
+      <c r="C396" s="13">
         <v>11869</v>
       </c>
-      <c r="D396" s="66">
+      <c r="D396" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" s="13" customFormat="1">
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="66">
+      <c r="B397" s="13">
         <v>64</v>
       </c>
-      <c r="C397" s="66">
+      <c r="C397" s="13">
         <v>11870</v>
       </c>
-      <c r="D397" s="66">
+      <c r="D397" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" s="13" customFormat="1">
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="66">
+      <c r="B398" s="13">
         <v>65</v>
       </c>
-      <c r="C398" s="66">
+      <c r="C398" s="13">
         <v>11871</v>
       </c>
-      <c r="D398" s="66">
+      <c r="D398" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" s="13" customFormat="1">
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="66">
+      <c r="B399" s="13">
         <v>65</v>
       </c>
-      <c r="C399" s="66">
+      <c r="C399" s="13">
         <v>11872</v>
       </c>
-      <c r="D399" s="66">
+      <c r="D399" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" s="13" customFormat="1">
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="66">
+      <c r="B400" s="13">
         <v>65</v>
       </c>
-      <c r="C400" s="66">
+      <c r="C400" s="13">
         <v>11873</v>
       </c>
-      <c r="D400" s="66">
+      <c r="D400" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" s="13" customFormat="1">
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="66">
+      <c r="B401" s="13">
         <v>65</v>
       </c>
-      <c r="C401" s="66">
+      <c r="C401" s="13">
         <v>11874</v>
       </c>
-      <c r="D401" s="66">
+      <c r="D401" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" s="13" customFormat="1">
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="66">
+      <c r="B402" s="13">
         <v>65</v>
       </c>
-      <c r="C402" s="66">
+      <c r="C402" s="13">
         <v>11875</v>
       </c>
-      <c r="D402" s="66">
+      <c r="D402" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" s="13" customFormat="1">
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="66">
+      <c r="B403" s="13">
         <v>65</v>
       </c>
-      <c r="C403" s="66">
+      <c r="C403" s="13">
         <v>11876</v>
       </c>
-      <c r="D403" s="66">
+      <c r="D403" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" s="13" customFormat="1">
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="66">
+      <c r="B404" s="13">
         <v>66</v>
       </c>
-      <c r="C404" s="66">
+      <c r="C404" s="13">
         <v>11877</v>
       </c>
-      <c r="D404" s="66">
+      <c r="D404" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" s="13" customFormat="1">
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="66">
+      <c r="B405" s="13">
         <v>66</v>
       </c>
-      <c r="C405" s="66">
+      <c r="C405" s="13">
         <v>11878</v>
       </c>
-      <c r="D405" s="66">
+      <c r="D405" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" s="13" customFormat="1">
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="66">
+      <c r="B406" s="13">
         <v>66</v>
       </c>
-      <c r="C406" s="66">
+      <c r="C406" s="13">
         <v>11879</v>
       </c>
-      <c r="D406" s="66">
+      <c r="D406" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" s="13" customFormat="1">
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="66">
+      <c r="B407" s="13">
         <v>66</v>
       </c>
-      <c r="C407" s="66">
+      <c r="C407" s="13">
         <v>11880</v>
       </c>
-      <c r="D407" s="66">
+      <c r="D407" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" s="13" customFormat="1">
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="66">
+      <c r="B408" s="13">
         <v>66</v>
       </c>
-      <c r="C408" s="66">
+      <c r="C408" s="13">
         <v>11881</v>
       </c>
-      <c r="D408" s="66">
+      <c r="D408" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" s="13" customFormat="1">
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="66">
+      <c r="B409" s="13">
         <v>66</v>
       </c>
-      <c r="C409" s="66">
+      <c r="C409" s="13">
         <v>11882</v>
       </c>
-      <c r="D409" s="66">
+      <c r="D409" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" s="13" customFormat="1">
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="66">
+      <c r="B410" s="13">
         <v>67</v>
       </c>
-      <c r="C410" s="66">
+      <c r="C410" s="13">
         <v>11883</v>
       </c>
-      <c r="D410" s="66">
+      <c r="D410" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" s="13" customFormat="1">
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="66">
+      <c r="B411" s="13">
         <v>67</v>
       </c>
-      <c r="C411" s="66">
+      <c r="C411" s="13">
         <v>11884</v>
       </c>
-      <c r="D411" s="66">
+      <c r="D411" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" s="13" customFormat="1">
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="66">
+      <c r="B412" s="13">
         <v>67</v>
       </c>
-      <c r="C412" s="66">
+      <c r="C412" s="13">
         <v>11885</v>
       </c>
-      <c r="D412" s="66">
+      <c r="D412" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" s="13" customFormat="1">
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="66">
+      <c r="B413" s="13">
         <v>67</v>
       </c>
-      <c r="C413" s="66">
+      <c r="C413" s="13">
         <v>11886</v>
       </c>
-      <c r="D413" s="66">
+      <c r="D413" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" s="13" customFormat="1">
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="66">
+      <c r="B414" s="13">
         <v>67</v>
       </c>
-      <c r="C414" s="66">
+      <c r="C414" s="13">
         <v>11887</v>
       </c>
-      <c r="D414" s="66">
+      <c r="D414" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" s="13" customFormat="1">
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="66">
+      <c r="B415" s="13">
         <v>67</v>
       </c>
-      <c r="C415" s="66">
+      <c r="C415" s="13">
         <v>11888</v>
       </c>
-      <c r="D415" s="66">
+      <c r="D415" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" s="13" customFormat="1">
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="66">
+      <c r="B416" s="13">
         <v>68</v>
       </c>
-      <c r="C416" s="66">
+      <c r="C416" s="13">
         <v>11889</v>
       </c>
-      <c r="D416" s="66">
+      <c r="D416" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" s="13" customFormat="1">
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="66">
+      <c r="B417" s="13">
         <v>68</v>
       </c>
-      <c r="C417" s="66">
+      <c r="C417" s="13">
         <v>11890</v>
       </c>
-      <c r="D417" s="66">
+      <c r="D417" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" s="13" customFormat="1">
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="66">
+      <c r="B418" s="13">
         <v>68</v>
       </c>
-      <c r="C418" s="66">
+      <c r="C418" s="13">
         <v>11891</v>
       </c>
-      <c r="D418" s="66">
+      <c r="D418" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" s="13" customFormat="1">
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="66">
+      <c r="B419" s="13">
         <v>68</v>
       </c>
-      <c r="C419" s="66">
+      <c r="C419" s="13">
         <v>11892</v>
       </c>
-      <c r="D419" s="66">
+      <c r="D419" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" s="13" customFormat="1">
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="66">
+      <c r="B420" s="13">
         <v>68</v>
       </c>
-      <c r="C420" s="66">
+      <c r="C420" s="13">
         <v>11893</v>
       </c>
-      <c r="D420" s="66">
+      <c r="D420" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" s="13" customFormat="1">
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="66">
+      <c r="B421" s="13">
         <v>68</v>
       </c>
-      <c r="C421" s="66">
+      <c r="C421" s="13">
         <v>11894</v>
       </c>
-      <c r="D421" s="66">
+      <c r="D421" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" s="13" customFormat="1">
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="37">
+      <c r="B422" s="13">
         <v>69</v>
       </c>
-      <c r="C422" s="37">
+      <c r="C422" s="13">
         <v>11895</v>
       </c>
-      <c r="D422" s="37">
+      <c r="D422" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" s="13" customFormat="1">
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="37">
+      <c r="B423" s="13">
         <v>69</v>
       </c>
-      <c r="C423" s="37">
+      <c r="C423" s="13">
         <v>11896</v>
       </c>
-      <c r="D423" s="37">
+      <c r="D423" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" s="13" customFormat="1">
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="37">
+      <c r="B424" s="13">
         <v>69</v>
       </c>
-      <c r="C424" s="37">
+      <c r="C424" s="13">
         <v>11897</v>
       </c>
-      <c r="D424" s="37">
+      <c r="D424" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" s="13" customFormat="1">
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="37">
+      <c r="B425" s="13">
         <v>69</v>
       </c>
-      <c r="C425" s="37">
+      <c r="C425" s="13">
         <v>11898</v>
       </c>
-      <c r="D425" s="37">
+      <c r="D425" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" s="13" customFormat="1">
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="37">
+      <c r="B426" s="13">
         <v>69</v>
       </c>
-      <c r="C426" s="37">
+      <c r="C426" s="13">
         <v>11899</v>
       </c>
-      <c r="D426" s="37">
+      <c r="D426" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" s="13" customFormat="1">
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="37">
+      <c r="B427" s="13">
         <v>69</v>
       </c>
-      <c r="C427" s="37">
+      <c r="C427" s="13">
         <v>11900</v>
       </c>
-      <c r="D427" s="37">
+      <c r="D427" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" s="13" customFormat="1">
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>70</v>
       </c>
-      <c r="C428" s="50">
+      <c r="C428" s="13">
         <v>11901</v>
       </c>
-      <c r="D428" s="50">
+      <c r="D428" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" s="13" customFormat="1">
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>70</v>
       </c>
-      <c r="C429" s="50">
+      <c r="C429" s="13">
         <v>11902</v>
       </c>
-      <c r="D429" s="50">
+      <c r="D429" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" s="13" customFormat="1">
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>70</v>
       </c>
-      <c r="C430" s="50">
+      <c r="C430" s="13">
         <v>11903</v>
       </c>
-      <c r="D430" s="50">
+      <c r="D430" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" s="13" customFormat="1">
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>70</v>
       </c>
-      <c r="C431" s="50">
+      <c r="C431" s="13">
         <v>11904</v>
       </c>
-      <c r="D431" s="50">
+      <c r="D431" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" s="13" customFormat="1">
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>70</v>
       </c>
-      <c r="C432" s="50">
+      <c r="C432" s="13">
         <v>11905</v>
       </c>
-      <c r="D432" s="50">
+      <c r="D432" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" s="13" customFormat="1">
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>70</v>
       </c>
-      <c r="C433" s="50">
+      <c r="C433" s="13">
         <v>11906</v>
       </c>
-      <c r="D433" s="50">
+      <c r="D433" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" s="13" customFormat="1">
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>70</v>
       </c>
-      <c r="C434" s="50">
+      <c r="C434" s="13">
         <v>11907</v>
       </c>
-      <c r="D434" s="50">
+      <c r="D434" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" s="13" customFormat="1">
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>70</v>
       </c>
-      <c r="C435" s="50">
+      <c r="C435" s="13">
         <v>11908</v>
       </c>
-      <c r="D435" s="50">
+      <c r="D435" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" s="13" customFormat="1">
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>70</v>
       </c>
-      <c r="C436" s="50">
+      <c r="C436" s="13">
         <v>11909</v>
       </c>
-      <c r="D436" s="50">
+      <c r="D436" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" s="13" customFormat="1">
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>71</v>
       </c>
-      <c r="C437" s="50">
+      <c r="C437" s="13">
         <v>11911</v>
       </c>
-      <c r="D437" s="50">
+      <c r="D437" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" s="13" customFormat="1">
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>71</v>
       </c>
-      <c r="C438" s="50">
+      <c r="C438" s="13">
         <v>11912</v>
       </c>
-      <c r="D438" s="50">
+      <c r="D438" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" s="13" customFormat="1">
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>71</v>
       </c>
-      <c r="C439" s="50">
+      <c r="C439" s="13">
         <v>11913</v>
       </c>
-      <c r="D439" s="50">
+      <c r="D439" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" s="13" customFormat="1">
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>71</v>
       </c>
-      <c r="C440" s="50">
+      <c r="C440" s="13">
         <v>11914</v>
       </c>
-      <c r="D440" s="50">
+      <c r="D440" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" s="13" customFormat="1">
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>71</v>
       </c>
-      <c r="C441" s="50">
+      <c r="C441" s="13">
         <v>11915</v>
       </c>
-      <c r="D441" s="50">
+      <c r="D441" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" s="13" customFormat="1">
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>71</v>
       </c>
-      <c r="C442" s="50">
+      <c r="C442" s="13">
         <v>11916</v>
       </c>
-      <c r="D442" s="50">
+      <c r="D442" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" s="13" customFormat="1">
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>71</v>
       </c>
-      <c r="C443" s="50">
+      <c r="C443" s="13">
         <v>11917</v>
       </c>
-      <c r="D443" s="50">
+      <c r="D443" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" s="13" customFormat="1">
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>71</v>
       </c>
-      <c r="C444" s="50">
+      <c r="C444" s="13">
         <v>11918</v>
       </c>
-      <c r="D444" s="50">
+      <c r="D444" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" s="13" customFormat="1">
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>71</v>
       </c>
-      <c r="C445" s="50">
+      <c r="C445" s="13">
         <v>11919</v>
       </c>
-      <c r="D445" s="50">
+      <c r="D445" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" s="13" customFormat="1">
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>72</v>
       </c>
-      <c r="C446" s="50">
+      <c r="C446" s="13">
         <v>11921</v>
       </c>
-      <c r="D446" s="50">
+      <c r="D446" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" s="13" customFormat="1">
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>72</v>
       </c>
-      <c r="C447" s="50">
+      <c r="C447" s="13">
         <v>11922</v>
       </c>
-      <c r="D447" s="50">
+      <c r="D447" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" s="13" customFormat="1">
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>72</v>
       </c>
-      <c r="C448" s="50">
+      <c r="C448" s="13">
         <v>11923</v>
       </c>
-      <c r="D448" s="50">
+      <c r="D448" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" s="13" customFormat="1">
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>72</v>
       </c>
-      <c r="C449" s="50">
+      <c r="C449" s="13">
         <v>11924</v>
       </c>
-      <c r="D449" s="50">
+      <c r="D449" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" s="13" customFormat="1">
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>72</v>
       </c>
-      <c r="C450" s="50">
+      <c r="C450" s="13">
         <v>11925</v>
       </c>
-      <c r="D450" s="50">
+      <c r="D450" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" s="13" customFormat="1">
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>72</v>
       </c>
-      <c r="C451" s="50">
+      <c r="C451" s="13">
         <v>11926</v>
       </c>
-      <c r="D451" s="50">
+      <c r="D451" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" s="13" customFormat="1">
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>72</v>
       </c>
-      <c r="C452" s="50">
+      <c r="C452" s="13">
         <v>11927</v>
       </c>
-      <c r="D452" s="50">
+      <c r="D452" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" s="13" customFormat="1">
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>72</v>
       </c>
-      <c r="C453" s="50">
+      <c r="C453" s="13">
         <v>11928</v>
       </c>
-      <c r="D453" s="50">
+      <c r="D453" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" s="13" customFormat="1">
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>72</v>
       </c>
-      <c r="C454" s="50">
+      <c r="C454" s="13">
         <v>11929</v>
       </c>
-      <c r="D454" s="50">
+      <c r="D454" s="13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="13">
+        <v>454</v>
+      </c>
+      <c r="B455" s="46">
+        <v>73</v>
+      </c>
+      <c r="C455" s="46">
+        <v>11930</v>
+      </c>
+      <c r="D455" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="13">
+        <v>455</v>
+      </c>
+      <c r="B456" s="46">
+        <v>73</v>
+      </c>
+      <c r="C456" s="46">
+        <v>11931</v>
+      </c>
+      <c r="D456" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="13">
+        <v>456</v>
+      </c>
+      <c r="B457" s="46">
+        <v>73</v>
+      </c>
+      <c r="C457" s="46">
+        <v>11932</v>
+      </c>
+      <c r="D457" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="13">
+        <v>457</v>
+      </c>
+      <c r="B458" s="46">
+        <v>73</v>
+      </c>
+      <c r="C458" s="46">
+        <v>11933</v>
+      </c>
+      <c r="D458" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="13">
+        <v>458</v>
+      </c>
+      <c r="B459" s="55">
+        <v>74</v>
+      </c>
+      <c r="C459" s="55">
+        <v>11934</v>
+      </c>
+      <c r="D459" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="13">
+        <v>459</v>
+      </c>
+      <c r="B460" s="55">
+        <v>74</v>
+      </c>
+      <c r="C460" s="55">
+        <v>11935</v>
+      </c>
+      <c r="D460" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="13">
+        <v>460</v>
+      </c>
+      <c r="B461" s="55">
+        <v>74</v>
+      </c>
+      <c r="C461" s="55">
+        <v>11936</v>
+      </c>
+      <c r="D461" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="13">
+        <v>461</v>
+      </c>
+      <c r="B462" s="55">
+        <v>74</v>
+      </c>
+      <c r="C462" s="55">
+        <v>11937</v>
+      </c>
+      <c r="D462" s="55">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -14976,11 +15139,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:F462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14993,10 +15156,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -19030,13 +19193,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="38" t="s">
+      <c r="C266" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="38" t="s">
+      <c r="D266" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="39" t="s">
+      <c r="E266" s="38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19047,13 +19210,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="38" t="s">
+      <c r="C267" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="38" t="s">
+      <c r="D267" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="39" t="s">
+      <c r="E267" s="38" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19064,13 +19227,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="38" t="s">
+      <c r="D268" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="39" t="s">
+      <c r="E268" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19081,13 +19244,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="38" t="s">
+      <c r="C269" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="38" t="s">
+      <c r="D269" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="39" t="s">
+      <c r="E269" s="38" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19098,13 +19261,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="38" t="s">
+      <c r="C270" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="38" t="s">
+      <c r="D270" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="39" t="s">
+      <c r="E270" s="38" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19115,13 +19278,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="38" t="s">
+      <c r="C271" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="38" t="s">
+      <c r="D271" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="39" t="s">
+      <c r="E271" s="38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19132,13 +19295,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="38" t="s">
+      <c r="C272" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="38" t="s">
+      <c r="D272" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="39" t="s">
+      <c r="E272" s="38" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19149,13 +19312,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="38" t="s">
+      <c r="C273" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="38" t="s">
+      <c r="D273" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="39" t="s">
+      <c r="E273" s="38" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19166,13 +19329,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="38" t="s">
+      <c r="C274" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="D274" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="39" t="s">
+      <c r="E274" s="38" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19478,7 +19641,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="42" t="s">
+      <c r="E292" s="41" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19495,7 +19658,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="42" t="s">
+      <c r="E293" s="41" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19512,7 +19675,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="42" t="s">
+      <c r="E294" s="41" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19529,7 +19692,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="42" t="s">
+      <c r="E295" s="41" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19546,7 +19709,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="42" t="s">
+      <c r="E296" s="41" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19560,10 +19723,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="43" t="s">
+      <c r="D297" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="42" t="s">
+      <c r="E297" s="41" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19577,10 +19740,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="43" t="s">
+      <c r="D298" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="42" t="s">
+      <c r="E298" s="41" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19594,10 +19757,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="42" t="s">
+      <c r="E299" s="41" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19614,7 +19777,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="42" t="s">
+      <c r="E300" s="41" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19631,7 +19794,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="42" t="s">
+      <c r="E301" s="41" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19648,7 +19811,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="42" t="s">
+      <c r="E302" s="41" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19665,7 +19828,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="42" t="s">
+      <c r="E303" s="41" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19682,7 +19845,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="42" t="s">
+      <c r="E304" s="41" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19710,7 +19873,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="42" t="s">
+      <c r="E306" s="41" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19727,7 +19890,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="42" t="s">
+      <c r="E307" s="41" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19744,7 +19907,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="42" t="s">
+      <c r="E308" s="41" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19761,7 +19924,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="42" t="s">
+      <c r="E309" s="41" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19778,7 +19941,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="42" t="s">
+      <c r="E310" s="41" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19795,7 +19958,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="42" t="s">
+      <c r="E311" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19812,7 +19975,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="42" t="s">
+      <c r="E312" s="41" t="s">
         <v>361</v>
       </c>
     </row>
@@ -19829,7 +19992,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="42" t="s">
+      <c r="E313" s="41" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19846,7 +20009,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="42" t="s">
+      <c r="E314" s="41" t="s">
         <v>363</v>
       </c>
     </row>
@@ -19863,7 +20026,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="42" t="s">
+      <c r="E315" s="41" t="s">
         <v>364</v>
       </c>
     </row>
@@ -19880,7 +20043,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="42" t="s">
+      <c r="E316" s="41" t="s">
         <v>566</v>
       </c>
     </row>
@@ -19897,7 +20060,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="42" t="s">
+      <c r="E317" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19914,7 +20077,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="42" t="s">
+      <c r="E318" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19931,7 +20094,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="42" t="s">
+      <c r="E319" s="41" t="s">
         <v>366</v>
       </c>
     </row>
@@ -19948,7 +20111,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="42" t="s">
+      <c r="E320" s="41" t="s">
         <v>367</v>
       </c>
     </row>
@@ -19965,7 +20128,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="42" t="s">
+      <c r="E321" s="41" t="s">
         <v>368</v>
       </c>
     </row>
@@ -19982,7 +20145,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="42" t="s">
+      <c r="E322" s="41" t="s">
         <v>567</v>
       </c>
     </row>
@@ -19999,7 +20162,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="42" t="s">
+      <c r="E323" s="41" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20016,7 +20179,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="42" t="s">
+      <c r="E324" s="41" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20033,7 +20196,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="42" t="s">
+      <c r="E325" s="41" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20050,7 +20213,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="42" t="s">
+      <c r="E326" s="41" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20067,7 +20230,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="42" t="s">
+      <c r="E327" s="41" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20084,7 +20247,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="42" t="s">
+      <c r="E328" s="41" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20101,7 +20264,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="42" t="s">
+      <c r="E329" s="41" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20118,7 +20281,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="42" t="s">
+      <c r="E330" s="41" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20135,7 +20298,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="42" t="s">
+      <c r="E331" s="41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20152,7 +20315,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="42" t="s">
+      <c r="E332" s="41" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20169,7 +20332,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="42" t="s">
+      <c r="E333" s="41" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20186,7 +20349,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="42" t="s">
+      <c r="E334" s="41" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20203,7 +20366,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="42" t="s">
+      <c r="E335" s="41" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20220,7 +20383,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="42" t="s">
+      <c r="E336" s="41" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20237,7 +20400,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="42" t="s">
+      <c r="E337" s="41" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20254,7 +20417,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="42" t="s">
+      <c r="E338" s="41" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20271,7 +20434,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="42" t="s">
+      <c r="E339" s="41" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20288,7 +20451,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="42" t="s">
+      <c r="E340" s="41" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20305,7 +20468,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="42" t="s">
+      <c r="E341" s="41" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20458,564 +20621,564 @@
       <c r="D350" s="13"/>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" s="49" customFormat="1">
+    <row r="351" spans="1:5" s="17" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="50" t="s">
+      <c r="C351" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="51" t="s">
+      <c r="D351" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="53" t="s">
+      <c r="E351" s="21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="49" customFormat="1">
+    <row r="352" spans="1:5" s="17" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="51" t="s">
+      <c r="C352" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="51" t="s">
+      <c r="D352" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="53" t="s">
+      <c r="E352" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="49" customFormat="1">
+    <row r="353" spans="1:5" s="17" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="51" t="s">
+      <c r="C353" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="51" t="s">
+      <c r="D353" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="53" t="s">
+      <c r="E353" s="21" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="49" customFormat="1">
+    <row r="354" spans="1:5" s="17" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="51" t="s">
+      <c r="C354" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="51" t="s">
+      <c r="D354" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="53" t="s">
+      <c r="E354" s="21" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="49" customFormat="1">
+    <row r="355" spans="1:5" s="17" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="51" t="s">
+      <c r="C355" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="50" t="s">
+      <c r="D355" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="53" t="s">
+      <c r="E355" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="49" customFormat="1">
+    <row r="356" spans="1:5" s="17" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="51" t="s">
+      <c r="C356" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="50" t="s">
+      <c r="D356" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="53" t="s">
+      <c r="E356" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="49" customFormat="1">
+    <row r="357" spans="1:5" s="17" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="51" t="s">
+      <c r="C357" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="51" t="s">
+      <c r="D357" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="53" t="s">
+      <c r="E357" s="21" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="49" customFormat="1">
+    <row r="358" spans="1:5" s="17" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="51" t="s">
+      <c r="C358" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="51" t="s">
+      <c r="D358" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="53" t="s">
+      <c r="E358" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="49" customFormat="1">
+    <row r="359" spans="1:5" s="17" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="51" t="s">
+      <c r="C359" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="51" t="s">
+      <c r="D359" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="53" t="s">
+      <c r="E359" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="44" customFormat="1">
+    <row r="360" spans="1:5" s="17" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="52" t="s">
+      <c r="C360" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="52" t="s">
+      <c r="D360" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="54" t="s">
+      <c r="E360" s="21" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="44" customFormat="1">
+    <row r="361" spans="1:5" s="17" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="52" t="s">
+      <c r="C361" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="52" t="s">
+      <c r="D361" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="54" t="s">
+      <c r="E361" s="21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="44" customFormat="1">
+    <row r="362" spans="1:5" s="17" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="52" t="s">
+      <c r="D362" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="54" t="s">
+      <c r="E362" s="21" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="44" customFormat="1">
+    <row r="363" spans="1:5" s="17" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="52" t="s">
+      <c r="C363" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="52" t="s">
+      <c r="D363" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="54" t="s">
+      <c r="E363" s="21" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="44" customFormat="1">
+    <row r="364" spans="1:5" s="17" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="52" t="s">
+      <c r="C364" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="45" t="s">
+      <c r="D364" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="54" t="s">
+      <c r="E364" s="21" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="44" customFormat="1">
+    <row r="365" spans="1:5" s="17" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="52" t="s">
+      <c r="C365" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="45" t="s">
+      <c r="D365" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="54" t="s">
+      <c r="E365" s="21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="44" customFormat="1">
+    <row r="366" spans="1:5" s="17" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="52" t="s">
+      <c r="C366" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="52" t="s">
+      <c r="D366" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="54" t="s">
+      <c r="E366" s="21" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="44" customFormat="1">
+    <row r="367" spans="1:5" s="17" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="52" t="s">
+      <c r="C367" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="52" t="s">
+      <c r="D367" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="54" t="s">
+      <c r="E367" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="44" customFormat="1">
+    <row r="368" spans="1:5" s="17" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="52" t="s">
+      <c r="C368" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="52" t="s">
+      <c r="D368" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="54" t="s">
+      <c r="E368" s="21" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="49" customFormat="1">
+    <row r="369" spans="1:5" s="17" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="51" t="s">
+      <c r="C369" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="51" t="s">
+      <c r="D369" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="53" t="s">
+      <c r="E369" s="21" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="49" customFormat="1">
+    <row r="370" spans="1:5" s="17" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="51" t="s">
+      <c r="C370" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="51" t="s">
+      <c r="D370" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="53" t="s">
+      <c r="E370" s="21" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="49" customFormat="1">
+    <row r="371" spans="1:5" s="17" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="51" t="s">
+      <c r="C371" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="51" t="s">
+      <c r="D371" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="53" t="s">
+      <c r="E371" s="21" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="49" customFormat="1">
+    <row r="372" spans="1:5" s="17" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="51" t="s">
+      <c r="C372" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="51" t="s">
+      <c r="D372" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="53" t="s">
+      <c r="E372" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="49" customFormat="1">
+    <row r="373" spans="1:5" s="17" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="51" t="s">
+      <c r="C373" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="53" t="s">
+      <c r="E373" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="49" customFormat="1">
+    <row r="374" spans="1:5" s="17" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="51" t="s">
+      <c r="C374" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="50" t="s">
+      <c r="D374" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="53" t="s">
+      <c r="E374" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="49" customFormat="1">
+    <row r="375" spans="1:5" s="17" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="51" t="s">
+      <c r="C375" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="51" t="s">
+      <c r="D375" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="53" t="s">
+      <c r="E375" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="49" customFormat="1">
+    <row r="376" spans="1:5" s="17" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="51" t="s">
+      <c r="C376" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="51" t="s">
+      <c r="D376" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="53" t="s">
+      <c r="E376" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="49" customFormat="1">
+    <row r="377" spans="1:5" s="17" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="51" t="s">
+      <c r="C377" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="51" t="s">
+      <c r="D377" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="53" t="s">
+      <c r="E377" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="59" customFormat="1">
+    <row r="378" spans="1:5" s="17" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="57" t="s">
+      <c r="C378" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="57" t="s">
+      <c r="D378" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="60" t="s">
+      <c r="E378" s="21" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="59" customFormat="1">
+    <row r="379" spans="1:5" s="17" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="61" t="s">
+      <c r="C379" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="61" t="s">
+      <c r="D379" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="60" t="s">
+      <c r="E379" s="21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="59" customFormat="1">
+    <row r="380" spans="1:5" s="17" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="61" t="s">
+      <c r="C380" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="57" t="s">
+      <c r="D380" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="60" t="s">
+      <c r="E380" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="59" customFormat="1">
+    <row r="381" spans="1:5" s="17" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="61" t="s">
+      <c r="C381" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="61" t="s">
+      <c r="D381" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="60" t="s">
+      <c r="E381" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="59" customFormat="1">
+    <row r="382" spans="1:5" s="17" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="61" t="s">
+      <c r="C382" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="61" t="s">
+      <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="60" t="s">
+      <c r="E382" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="59" customFormat="1">
+    <row r="383" spans="1:5" s="17" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="61" t="s">
+      <c r="C383" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="57"/>
-      <c r="E383" s="62"/>
-    </row>
-    <row r="384" spans="1:5" ht="16.5">
+      <c r="D383" s="13"/>
+      <c r="E383" s="32"/>
+    </row>
+    <row r="384" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A384" s="17">
         <v>383</v>
       </c>
@@ -21025,14 +21188,14 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="43" t="s">
+      <c r="D384" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="42" t="s">
+      <c r="E384" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5">
+    <row r="385" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A385" s="17">
         <v>384</v>
       </c>
@@ -21042,1126 +21205,1246 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="43" t="s">
+      <c r="D385" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="42" t="s">
+      <c r="E385" s="21" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" s="17" customFormat="1">
       <c r="A386" s="17">
         <v>385</v>
       </c>
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="64" t="s">
+      <c r="C386" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="66" t="s">
+      <c r="D386" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="67" t="s">
+      <c r="E386" s="21" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" s="17" customFormat="1">
       <c r="A387" s="17">
         <v>386</v>
       </c>
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="64" t="s">
+      <c r="C387" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="66" t="s">
+      <c r="D387" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="67" t="s">
+      <c r="E387" s="21" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" s="17" customFormat="1">
       <c r="A388" s="17">
         <v>387</v>
       </c>
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="64" t="s">
+      <c r="C388" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="66" t="s">
+      <c r="D388" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="67" t="s">
+      <c r="E388" s="21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" s="17" customFormat="1">
       <c r="A389" s="17">
         <v>388</v>
       </c>
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="64" t="s">
+      <c r="C389" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="66" t="s">
+      <c r="D389" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="67" t="s">
+      <c r="E389" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" s="17" customFormat="1">
       <c r="A390" s="17">
         <v>389</v>
       </c>
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="64" t="s">
+      <c r="C390" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="66" t="s">
+      <c r="D390" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="67" t="s">
+      <c r="E390" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" s="17" customFormat="1">
       <c r="A391" s="17">
         <v>390</v>
       </c>
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="64" t="s">
+      <c r="C391" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="66" t="s">
+      <c r="D391" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="67" t="s">
+      <c r="E391" s="21" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" s="17" customFormat="1">
       <c r="A392" s="17">
         <v>391</v>
       </c>
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="64" t="s">
+      <c r="C392" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="66" t="s">
+      <c r="D392" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="67" t="s">
+      <c r="E392" s="21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" s="17" customFormat="1">
       <c r="A393" s="17">
         <v>392</v>
       </c>
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="64" t="s">
+      <c r="C393" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="66" t="s">
+      <c r="D393" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="67" t="s">
+      <c r="E393" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" s="17" customFormat="1">
       <c r="A394" s="17">
         <v>393</v>
       </c>
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="64" t="s">
+      <c r="C394" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="66" t="s">
+      <c r="D394" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="67" t="s">
+      <c r="E394" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" s="17" customFormat="1">
       <c r="A395" s="17">
         <v>394</v>
       </c>
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="64" t="s">
+      <c r="C395" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="66" t="s">
+      <c r="D395" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="67" t="s">
+      <c r="E395" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" s="17" customFormat="1">
       <c r="A396" s="17">
         <v>395</v>
       </c>
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="64" t="s">
+      <c r="C396" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="66" t="s">
+      <c r="D396" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="67" t="s">
+      <c r="E396" s="21" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" s="17" customFormat="1">
       <c r="A397" s="17">
         <v>396</v>
       </c>
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="64" t="s">
+      <c r="C397" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="66" t="s">
+      <c r="D397" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="67" t="s">
+      <c r="E397" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" s="17" customFormat="1">
       <c r="A398" s="17">
         <v>397</v>
       </c>
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="64" t="s">
+      <c r="C398" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="66" t="s">
+      <c r="D398" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="67" t="s">
+      <c r="E398" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" s="17" customFormat="1">
       <c r="A399" s="17">
         <v>398</v>
       </c>
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="64" t="s">
+      <c r="C399" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="66" t="s">
+      <c r="D399" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="67" t="s">
+      <c r="E399" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" s="17" customFormat="1">
       <c r="A400" s="17">
         <v>399</v>
       </c>
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="64" t="s">
+      <c r="C400" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="66" t="s">
+      <c r="D400" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="67" t="s">
+      <c r="E400" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" s="17" customFormat="1">
       <c r="A401" s="17">
         <v>400</v>
       </c>
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="64" t="s">
+      <c r="C401" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="66" t="s">
+      <c r="D401" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="67" t="s">
+      <c r="E401" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" s="17" customFormat="1">
       <c r="A402" s="17">
         <v>401</v>
       </c>
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="64" t="s">
+      <c r="C402" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="66" t="s">
+      <c r="D402" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="67" t="s">
+      <c r="E402" s="21" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" s="17" customFormat="1">
       <c r="A403" s="17">
         <v>402</v>
       </c>
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="64" t="s">
+      <c r="C403" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="66" t="s">
+      <c r="D403" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="67" t="s">
+      <c r="E403" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" s="17" customFormat="1">
       <c r="A404" s="17">
         <v>403</v>
       </c>
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="64" t="s">
+      <c r="C404" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="66" t="s">
+      <c r="D404" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="67" t="s">
+      <c r="E404" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" s="17" customFormat="1">
       <c r="A405" s="17">
         <v>404</v>
       </c>
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="64" t="s">
+      <c r="C405" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="66" t="s">
+      <c r="D405" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="67" t="s">
+      <c r="E405" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" s="17" customFormat="1">
       <c r="A406" s="17">
         <v>405</v>
       </c>
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="64" t="s">
+      <c r="C406" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="66" t="s">
+      <c r="D406" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="67" t="s">
+      <c r="E406" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" s="17" customFormat="1">
       <c r="A407" s="17">
         <v>406</v>
       </c>
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="64" t="s">
+      <c r="C407" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="66" t="s">
+      <c r="D407" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="67" t="s">
+      <c r="E407" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" s="17" customFormat="1">
       <c r="A408" s="17">
         <v>407</v>
       </c>
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="64" t="s">
+      <c r="C408" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="66" t="s">
+      <c r="D408" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="67" t="s">
+      <c r="E408" s="21" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" s="17" customFormat="1">
       <c r="A409" s="17">
         <v>408</v>
       </c>
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="64" t="s">
+      <c r="C409" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="66" t="s">
+      <c r="D409" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="67" t="s">
+      <c r="E409" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" s="17" customFormat="1">
       <c r="A410" s="17">
         <v>409</v>
       </c>
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="64" t="s">
+      <c r="C410" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="66" t="s">
+      <c r="D410" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="67" t="s">
+      <c r="E410" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" s="17" customFormat="1">
       <c r="A411" s="17">
         <v>410</v>
       </c>
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="64" t="s">
+      <c r="C411" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="66" t="s">
+      <c r="D411" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="67" t="s">
+      <c r="E411" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" s="17" customFormat="1">
       <c r="A412" s="17">
         <v>411</v>
       </c>
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="64" t="s">
+      <c r="C412" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="66" t="s">
+      <c r="D412" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="67" t="s">
+      <c r="E412" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" s="17" customFormat="1">
       <c r="A413" s="17">
         <v>412</v>
       </c>
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="64" t="s">
+      <c r="C413" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="66" t="s">
+      <c r="D413" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="67" t="s">
+      <c r="E413" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" s="17" customFormat="1">
       <c r="A414" s="17">
         <v>413</v>
       </c>
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="64" t="s">
+      <c r="C414" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="66" t="s">
+      <c r="D414" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="67" t="s">
+      <c r="E414" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" s="17" customFormat="1">
       <c r="A415" s="17">
         <v>414</v>
       </c>
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="64" t="s">
+      <c r="C415" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="66" t="s">
+      <c r="D415" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="67" t="s">
+      <c r="E415" s="21" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" s="17" customFormat="1">
       <c r="A416" s="17">
         <v>415</v>
       </c>
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="64" t="s">
+      <c r="C416" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="66" t="s">
+      <c r="D416" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="67" t="s">
+      <c r="E416" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" s="17" customFormat="1">
       <c r="A417" s="17">
         <v>416</v>
       </c>
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="64" t="s">
+      <c r="C417" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="66" t="s">
+      <c r="D417" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="67" t="s">
+      <c r="E417" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" s="17" customFormat="1">
       <c r="A418" s="17">
         <v>417</v>
       </c>
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="64" t="s">
+      <c r="C418" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="66" t="s">
+      <c r="D418" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="67" t="s">
+      <c r="E418" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" s="17" customFormat="1">
       <c r="A419" s="17">
         <v>418</v>
       </c>
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="64" t="s">
+      <c r="C419" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="66" t="s">
+      <c r="D419" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="67" t="s">
+      <c r="E419" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" s="17" customFormat="1">
       <c r="A420" s="17">
         <v>419</v>
       </c>
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="64" t="s">
+      <c r="C420" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="66" t="s">
+      <c r="D420" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="67" t="s">
+      <c r="E420" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" s="17" customFormat="1">
       <c r="A421" s="17">
         <v>420</v>
       </c>
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="64" t="s">
+      <c r="C421" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="66" t="s">
+      <c r="D421" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="67" t="s">
+      <c r="E421" s="21" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" s="17" customFormat="1">
       <c r="A422" s="17">
         <v>421</v>
       </c>
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="38" t="s">
+      <c r="C422" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="37" t="s">
+      <c r="D422" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="39" t="s">
+      <c r="E422" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" s="17" customFormat="1">
       <c r="A423" s="17">
         <v>422</v>
       </c>
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="38" t="s">
+      <c r="C423" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="38" t="s">
+      <c r="D423" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="39" t="s">
+      <c r="E423" s="21" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" s="17" customFormat="1">
       <c r="A424" s="17">
         <v>423</v>
       </c>
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="38" t="s">
+      <c r="C424" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="37" t="s">
+      <c r="D424" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="39" t="s">
+      <c r="E424" s="21" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" s="17" customFormat="1">
       <c r="A425" s="17">
         <v>424</v>
       </c>
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="38" t="s">
+      <c r="C425" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="38" t="s">
+      <c r="D425" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="39" t="s">
+      <c r="E425" s="21" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" s="17" customFormat="1">
       <c r="A426" s="17">
         <v>425</v>
       </c>
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="38" t="s">
+      <c r="C426" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="37" t="s">
+      <c r="D426" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="39" t="s">
+      <c r="E426" s="21" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" s="17" customFormat="1">
       <c r="A427" s="17">
         <v>426</v>
       </c>
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="38" t="s">
+      <c r="C427" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="37"/>
-      <c r="E427" s="68"/>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="D427" s="13"/>
+      <c r="E427" s="32"/>
+    </row>
+    <row r="428" spans="1:5" s="17" customFormat="1">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>11901</v>
       </c>
-      <c r="C428" s="50"/>
-      <c r="D428" s="50" t="s">
+      <c r="C428" s="13"/>
+      <c r="D428" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="53" t="s">
+      <c r="E428" s="21" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" s="17" customFormat="1">
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>11902</v>
       </c>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50" t="s">
+      <c r="C429" s="13"/>
+      <c r="D429" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="53" t="s">
+      <c r="E429" s="21" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" s="17" customFormat="1">
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>11903</v>
       </c>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50" t="s">
+      <c r="C430" s="13"/>
+      <c r="D430" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="53" t="s">
+      <c r="E430" s="21" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" s="17" customFormat="1">
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>11904</v>
       </c>
-      <c r="C431" s="50"/>
-      <c r="D431" s="51" t="s">
+      <c r="C431" s="13"/>
+      <c r="D431" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="53" t="s">
+      <c r="E431" s="21" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" s="17" customFormat="1">
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>11905</v>
       </c>
-      <c r="C432" s="50"/>
-      <c r="D432" s="51" t="s">
+      <c r="C432" s="13"/>
+      <c r="D432" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="53" t="s">
+      <c r="E432" s="21" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" s="17" customFormat="1">
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>11906</v>
       </c>
-      <c r="C433" s="50"/>
-      <c r="D433" s="51" t="s">
+      <c r="C433" s="13"/>
+      <c r="D433" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="53" t="s">
+      <c r="E433" s="21" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" s="17" customFormat="1">
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>11907</v>
       </c>
-      <c r="C434" s="50"/>
-      <c r="D434" s="51" t="s">
+      <c r="C434" s="13"/>
+      <c r="D434" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="53" t="s">
+      <c r="E434" s="21" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" s="17" customFormat="1">
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>11908</v>
       </c>
-      <c r="C435" s="50"/>
-      <c r="D435" s="51" t="s">
+      <c r="C435" s="13"/>
+      <c r="D435" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="53" t="s">
+      <c r="E435" s="21" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" s="17" customFormat="1">
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>11909</v>
       </c>
-      <c r="C436" s="50"/>
-      <c r="D436" s="51" t="s">
+      <c r="C436" s="13"/>
+      <c r="D436" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="53" t="s">
+      <c r="E436" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" s="17" customFormat="1">
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>11911</v>
       </c>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50" t="s">
+      <c r="C437" s="13"/>
+      <c r="D437" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="53" t="s">
+      <c r="E437" s="21" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" s="17" customFormat="1">
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>11912</v>
       </c>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50" t="s">
+      <c r="C438" s="13"/>
+      <c r="D438" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="53" t="s">
+      <c r="E438" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" s="17" customFormat="1">
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>11913</v>
       </c>
-      <c r="C439" s="50"/>
-      <c r="D439" s="50" t="s">
+      <c r="C439" s="13"/>
+      <c r="D439" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="53" t="s">
+      <c r="E439" s="21" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" s="17" customFormat="1">
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>11914</v>
       </c>
-      <c r="C440" s="50"/>
-      <c r="D440" s="51" t="s">
+      <c r="C440" s="13"/>
+      <c r="D440" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="53" t="s">
+      <c r="E440" s="21" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" s="17" customFormat="1">
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>11915</v>
       </c>
-      <c r="C441" s="50"/>
-      <c r="D441" s="51" t="s">
+      <c r="C441" s="13"/>
+      <c r="D441" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="53" t="s">
+      <c r="E441" s="21" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" s="17" customFormat="1">
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>11916</v>
       </c>
-      <c r="C442" s="50"/>
-      <c r="D442" s="51" t="s">
+      <c r="C442" s="13"/>
+      <c r="D442" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="53" t="s">
+      <c r="E442" s="21" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" s="17" customFormat="1">
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>11917</v>
       </c>
-      <c r="C443" s="50"/>
-      <c r="D443" s="51" t="s">
+      <c r="C443" s="13"/>
+      <c r="D443" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="53" t="s">
+      <c r="E443" s="21" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" s="17" customFormat="1">
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>11918</v>
       </c>
-      <c r="C444" s="50"/>
-      <c r="D444" s="51" t="s">
+      <c r="C444" s="13"/>
+      <c r="D444" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="53" t="s">
+      <c r="E444" s="21" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" s="17" customFormat="1">
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>11919</v>
       </c>
-      <c r="C445" s="50"/>
-      <c r="D445" s="51" t="s">
+      <c r="C445" s="13"/>
+      <c r="D445" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="53" t="s">
+      <c r="E445" s="21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" s="17" customFormat="1">
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>11921</v>
       </c>
-      <c r="C446" s="50"/>
-      <c r="D446" s="50" t="s">
+      <c r="C446" s="13"/>
+      <c r="D446" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="53" t="s">
+      <c r="E446" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" s="17" customFormat="1">
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>11922</v>
       </c>
-      <c r="C447" s="50"/>
-      <c r="D447" s="50" t="s">
+      <c r="C447" s="13"/>
+      <c r="D447" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="53" t="s">
+      <c r="E447" s="21" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" s="17" customFormat="1">
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>11923</v>
       </c>
-      <c r="C448" s="50"/>
-      <c r="D448" s="50" t="s">
+      <c r="C448" s="13"/>
+      <c r="D448" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="53" t="s">
+      <c r="E448" s="21" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" s="17" customFormat="1">
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>11924</v>
       </c>
-      <c r="C449" s="50"/>
-      <c r="D449" s="51" t="s">
+      <c r="C449" s="13"/>
+      <c r="D449" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="53" t="s">
+      <c r="E449" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" s="17" customFormat="1">
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>11925</v>
       </c>
-      <c r="C450" s="50"/>
-      <c r="D450" s="51" t="s">
+      <c r="C450" s="13"/>
+      <c r="D450" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="53" t="s">
+      <c r="E450" s="21" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" s="17" customFormat="1">
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>11926</v>
       </c>
-      <c r="C451" s="50"/>
-      <c r="D451" s="51" t="s">
+      <c r="C451" s="13"/>
+      <c r="D451" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E451" s="53" t="s">
+      <c r="E451" s="21" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" s="17" customFormat="1">
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>11927</v>
       </c>
-      <c r="C452" s="50"/>
-      <c r="D452" s="51" t="s">
+      <c r="C452" s="13"/>
+      <c r="D452" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="53" t="s">
+      <c r="E452" s="21" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" s="17" customFormat="1">
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>11928</v>
       </c>
-      <c r="C453" s="50"/>
-      <c r="D453" s="51" t="s">
+      <c r="C453" s="13"/>
+      <c r="D453" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="53" t="s">
+      <c r="E453" s="21" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" s="17" customFormat="1">
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>11929</v>
       </c>
-      <c r="C454" s="50"/>
-      <c r="D454" s="51" t="s">
+      <c r="C454" s="13"/>
+      <c r="D454" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="53" t="s">
+      <c r="E454" s="21" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="45">
+        <v>454</v>
+      </c>
+      <c r="B455" s="46">
+        <v>11930</v>
+      </c>
+      <c r="C455" s="46"/>
+      <c r="D455" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="E455" s="47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="45">
+        <v>455</v>
+      </c>
+      <c r="B456" s="46">
+        <v>11931</v>
+      </c>
+      <c r="C456" s="46"/>
+      <c r="D456" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="E456" s="47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="45">
+        <v>456</v>
+      </c>
+      <c r="B457" s="46">
+        <v>11932</v>
+      </c>
+      <c r="C457" s="46"/>
+      <c r="D457" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="E457" s="47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="45">
+        <v>457</v>
+      </c>
+      <c r="B458" s="46">
+        <v>11933</v>
+      </c>
+      <c r="C458" s="46"/>
+      <c r="D458" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="E458" s="47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="43">
+        <v>458</v>
+      </c>
+      <c r="B459" s="55">
+        <v>11934</v>
+      </c>
+      <c r="C459" s="55"/>
+      <c r="D459" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="E459" s="56" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="43">
+        <v>459</v>
+      </c>
+      <c r="B460" s="55">
+        <v>11935</v>
+      </c>
+      <c r="C460" s="55"/>
+      <c r="D460" s="55" t="s">
+        <v>729</v>
+      </c>
+      <c r="E460" s="56" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="43">
+        <v>460</v>
+      </c>
+      <c r="B461" s="55">
+        <v>11936</v>
+      </c>
+      <c r="C461" s="55"/>
+      <c r="D461" s="55" t="s">
+        <v>731</v>
+      </c>
+      <c r="E461" s="56" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="43">
+        <v>461</v>
+      </c>
+      <c r="B462" s="55">
+        <v>11937</v>
+      </c>
+      <c r="C462" s="55"/>
+      <c r="D462" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="E462" s="56" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
   <si>
     <t>id|</t>
   </si>
@@ -4916,6 +4916,218 @@
   </si>
   <si>
     <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--抽奖（金元宝）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--抽奖（福利券）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5058,7 +5270,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5107,6 +5319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5147,7 +5365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5330,6 +5548,28 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5609,11 +5849,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7934,6 +8174,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="71">
+        <v>77</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C78" s="71">
+        <v>1612828800</v>
+      </c>
+      <c r="D78" s="71">
+        <v>1613404799</v>
+      </c>
+      <c r="E78" s="73">
+        <v>70</v>
+      </c>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="71">
+        <v>77</v>
+      </c>
+      <c r="L78" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="71">
+        <v>78</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="C79" s="71">
+        <v>1612828800</v>
+      </c>
+      <c r="D79" s="71">
+        <v>1613404799</v>
+      </c>
+      <c r="E79" s="73">
+        <v>71</v>
+      </c>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="71">
+        <v>77</v>
+      </c>
+      <c r="L79" s="71">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7949,7 +8245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:D70"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8939,11 +9235,32 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="70">
+        <v>70</v>
+      </c>
+      <c r="B71" s="70">
+        <v>70</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>757</v>
+      </c>
+      <c r="D71" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="17"/>
+      <c r="A72" s="70">
+        <v>71</v>
+      </c>
+      <c r="B72" s="70">
+        <v>71</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="71">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8997,13 +9314,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C455" sqref="C455"/>
+      <selection pane="bottomRight" activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15766,6 +16083,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="13">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>77</v>
+      </c>
+      <c r="C483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="D483" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="13">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>77</v>
+      </c>
+      <c r="C484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="D484" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="13">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>77</v>
+      </c>
+      <c r="C485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="D485" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="13">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>77</v>
+      </c>
+      <c r="C486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="D486" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="13">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>77</v>
+      </c>
+      <c r="C487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="D487" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="13">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>77</v>
+      </c>
+      <c r="C488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="D488" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="13">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>77</v>
+      </c>
+      <c r="C489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="D489" s="66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="13">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>77</v>
+      </c>
+      <c r="C490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="D490" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="13">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>77</v>
+      </c>
+      <c r="C491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="D491" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="13">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>77</v>
+      </c>
+      <c r="C492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="D492" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="13">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>77</v>
+      </c>
+      <c r="C493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="D493" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="13">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>77</v>
+      </c>
+      <c r="C494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="D494" s="66">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="13">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>77</v>
+      </c>
+      <c r="C495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="D495" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="13">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>77</v>
+      </c>
+      <c r="C496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="D496" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="13">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>77</v>
+      </c>
+      <c r="C497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="D497" s="66">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15775,11 +16302,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F482"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E458" sqref="E458"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22912,7 +23439,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>601</v>
+        <v>764</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -23031,7 +23558,7 @@
         <v>11934</v>
       </c>
       <c r="C459" s="57"/>
-      <c r="D459" s="57" t="s">
+      <c r="D459" s="59" t="s">
         <v>513</v>
       </c>
       <c r="E459" s="58" t="s">
@@ -23240,7 +23767,7 @@
       </c>
       <c r="C473" s="57"/>
       <c r="D473" s="59" t="s">
-        <v>451</v>
+        <v>770</v>
       </c>
       <c r="E473" s="58" t="s">
         <v>755</v>
@@ -23376,6 +23903,221 @@
       </c>
       <c r="D482" s="57"/>
       <c r="E482" s="61"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="17">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="C483" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D483" s="66"/>
+      <c r="E483" s="68"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="17">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="C484" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="D484" s="66"/>
+      <c r="E484" s="68"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="17">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="C485" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="D485" s="66"/>
+      <c r="E485" s="68"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="17">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="C486" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="D486" s="66"/>
+      <c r="E486" s="68"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="17">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="C487" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="D487" s="66"/>
+      <c r="E487" s="68"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="17">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="C488" s="66"/>
+      <c r="D488" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E488" s="69" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="17">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="C489" s="66"/>
+      <c r="D489" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E489" s="69" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="17">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="C490" s="66"/>
+      <c r="D490" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="E490" s="69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="17">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="C491" s="66"/>
+      <c r="D491" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E491" s="69" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="17">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="C492" s="66"/>
+      <c r="D492" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="E492" s="69" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="17">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="C493" s="66"/>
+      <c r="D493" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E493" s="69" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="17">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="C494" s="66"/>
+      <c r="D494" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E494" s="69" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="17">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="C495" s="66"/>
+      <c r="D495" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E495" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="17">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="C496" s="66"/>
+      <c r="D496" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E496" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="17">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="C497" s="66"/>
+      <c r="D497" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E497" s="69" t="s">
+        <v>772</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="737">
   <si>
     <t>id|</t>
   </si>
@@ -4662,28 +4662,42 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xnfd_0</t>
-  </si>
-  <si>
-    <t>prop_xnfd_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_3</t>
-  </si>
-  <si>
     <t>1,</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_gdn_xnfd</t>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4881,7 +4895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5037,6 +5051,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5318,9 +5338,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7598,9 +7618,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8566,10 +8586,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="45">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D69" s="50">
         <v>1</v>
@@ -8580,10 +8600,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="45">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D70" s="50">
         <v>1</v>
@@ -8647,7 +8667,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C456" sqref="C456"/>
+      <selection pane="bottomRight" activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15143,7 +15163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C456" sqref="C456"/>
+      <selection pane="bottomLeft" activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22327,7 +22347,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" ht="16.5">
       <c r="A455" s="45">
         <v>454</v>
       </c>
@@ -22335,14 +22355,14 @@
         <v>11930</v>
       </c>
       <c r="C455" s="46"/>
-      <c r="D455" s="46" t="s">
+      <c r="D455" s="57" t="s">
         <v>730</v>
       </c>
       <c r="E455" s="47" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="16.5">
       <c r="A456" s="45">
         <v>455</v>
       </c>
@@ -22350,14 +22370,14 @@
         <v>11931</v>
       </c>
       <c r="C456" s="46"/>
-      <c r="D456" s="46" t="s">
-        <v>729</v>
+      <c r="D456" s="57" t="s">
+        <v>731</v>
       </c>
       <c r="E456" s="47" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="16.5">
       <c r="A457" s="45">
         <v>456</v>
       </c>
@@ -22365,14 +22385,14 @@
         <v>11932</v>
       </c>
       <c r="C457" s="46"/>
-      <c r="D457" s="46" t="s">
-        <v>731</v>
+      <c r="D457" s="57" t="s">
+        <v>732</v>
       </c>
       <c r="E457" s="47" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="16.5">
       <c r="A458" s="45">
         <v>457</v>
       </c>
@@ -22380,14 +22400,14 @@
         <v>11933</v>
       </c>
       <c r="C458" s="46"/>
-      <c r="D458" s="46" t="s">
-        <v>732</v>
+      <c r="D458" s="57" t="s">
+        <v>733</v>
       </c>
       <c r="E458" s="47" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="16.5">
       <c r="A459" s="43">
         <v>458</v>
       </c>
@@ -22395,14 +22415,14 @@
         <v>11934</v>
       </c>
       <c r="C459" s="55"/>
-      <c r="D459" s="55" t="s">
-        <v>730</v>
+      <c r="D459" s="58" t="s">
+        <v>734</v>
       </c>
       <c r="E459" s="56" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="16.5">
       <c r="A460" s="43">
         <v>459</v>
       </c>
@@ -22410,14 +22430,14 @@
         <v>11935</v>
       </c>
       <c r="C460" s="55"/>
-      <c r="D460" s="55" t="s">
-        <v>729</v>
+      <c r="D460" s="58" t="s">
+        <v>735</v>
       </c>
       <c r="E460" s="56" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="16.5">
       <c r="A461" s="43">
         <v>460</v>
       </c>
@@ -22425,14 +22445,14 @@
         <v>11936</v>
       </c>
       <c r="C461" s="55"/>
-      <c r="D461" s="55" t="s">
-        <v>731</v>
+      <c r="D461" s="58" t="s">
+        <v>736</v>
       </c>
       <c r="E461" s="56" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="16.5">
       <c r="A462" s="43">
         <v>461</v>
       </c>
@@ -22440,11 +22460,11 @@
         <v>11937</v>
       </c>
       <c r="C462" s="55"/>
-      <c r="D462" s="55" t="s">
-        <v>732</v>
+      <c r="D462" s="58" t="s">
+        <v>733</v>
       </c>
       <c r="E462" s="56" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -105,6 +105,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -113,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,6 +130,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -136,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -160,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,6 +181,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -183,6 +190,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="758">
   <si>
     <t>id|</t>
   </si>
@@ -4824,6 +4832,95 @@
   </si>
   <si>
     <t>all_powerful_type|万能道具类型</t>
+  </si>
+  <si>
+    <t>茅台抽奖--600-900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--大于900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--小于600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,3000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4941,11 +5038,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4953,15 +5052,17 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5001,6 +5102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5044,7 +5151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5204,8 +5311,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5484,11 +5613,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7725,13 +7854,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="18" customFormat="1">
-      <c r="E75" s="28"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+    <row r="75" spans="1:12" s="63" customFormat="1">
+      <c r="A75" s="63">
+        <v>74</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>747</v>
+      </c>
+      <c r="C75" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D75" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E75" s="65">
+        <v>69</v>
+      </c>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63">
+        <v>74</v>
+      </c>
+      <c r="L75" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="63" customFormat="1">
+      <c r="A76" s="63">
+        <v>75</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C76" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D76" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E76" s="65">
+        <v>69</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="63">
+        <v>75</v>
+      </c>
+      <c r="L76" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="63" customFormat="1">
+      <c r="A77" s="63">
+        <v>76</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="C77" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D77" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E77" s="65">
+        <v>69</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63">
+        <v>76</v>
+      </c>
+      <c r="L77" s="63">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7744,11 +7949,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8724,8 +8929,25 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1">
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="A70" s="62">
+        <v>69</v>
+      </c>
+      <c r="B70" s="62">
+        <v>69</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="D70" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8779,13 +9001,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E462"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B441" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B453" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C474" sqref="C474:C477"/>
+      <selection pane="bottomRight" activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15212,10 +15434,342 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="13" customFormat="1"/>
-    <row r="460" spans="1:4" s="13" customFormat="1"/>
-    <row r="461" spans="1:4" s="13" customFormat="1"/>
-    <row r="462" spans="1:4" s="13" customFormat="1"/>
+    <row r="459" spans="1:4" s="13" customFormat="1">
+      <c r="A459" s="13">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>74</v>
+      </c>
+      <c r="C459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="D459" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" s="13" customFormat="1">
+      <c r="A460" s="13">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>74</v>
+      </c>
+      <c r="C460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="D460" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" s="13" customFormat="1">
+      <c r="A461" s="13">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>74</v>
+      </c>
+      <c r="C461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="D461" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="13" customFormat="1">
+      <c r="A462" s="13">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>74</v>
+      </c>
+      <c r="C462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="D462" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="13">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>74</v>
+      </c>
+      <c r="C463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="D463" s="57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="13">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>74</v>
+      </c>
+      <c r="C464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="D464" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="13">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>74</v>
+      </c>
+      <c r="C465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="D465" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="13">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>74</v>
+      </c>
+      <c r="C466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="D466" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="13">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>75</v>
+      </c>
+      <c r="C467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="D467" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="13">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>75</v>
+      </c>
+      <c r="C468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="D468" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="13">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>75</v>
+      </c>
+      <c r="C469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="D469" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="13">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>75</v>
+      </c>
+      <c r="C470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="D470" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="13">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>75</v>
+      </c>
+      <c r="C471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="D471" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="13">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>75</v>
+      </c>
+      <c r="C472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="D472" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="13">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>75</v>
+      </c>
+      <c r="C473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="D473" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="13">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>75</v>
+      </c>
+      <c r="C474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="D474" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="13">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>76</v>
+      </c>
+      <c r="C475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="D475" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="13">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>76</v>
+      </c>
+      <c r="C476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="D476" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="13">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>76</v>
+      </c>
+      <c r="C477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="D477" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="13">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>76</v>
+      </c>
+      <c r="C478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="D478" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="13">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>76</v>
+      </c>
+      <c r="C479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="D479" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="13">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>76</v>
+      </c>
+      <c r="C480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="D480" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="13">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>76</v>
+      </c>
+      <c r="C481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="D481" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="13">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>76</v>
+      </c>
+      <c r="C482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="D482" s="57">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15225,11 +15779,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F462"/>
+  <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H461" sqref="H461"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E480" sqref="E480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22414,7 +22968,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" ht="16.5">
-      <c r="A455" s="44">
+      <c r="A455" s="17">
         <v>454</v>
       </c>
       <c r="B455" s="45">
@@ -22429,7 +22983,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" ht="16.5">
-      <c r="A456" s="44">
+      <c r="A456" s="17">
         <v>455</v>
       </c>
       <c r="B456" s="45">
@@ -22444,7 +22998,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" ht="16.5">
-      <c r="A457" s="44">
+      <c r="A457" s="17">
         <v>456</v>
       </c>
       <c r="B457" s="45">
@@ -22459,7 +23013,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" ht="16.5">
-      <c r="A458" s="44">
+      <c r="A458" s="17">
         <v>457</v>
       </c>
       <c r="B458" s="45">
@@ -22473,29 +23027,359 @@
         <v>726</v>
       </c>
     </row>
-    <row r="459" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="B459" s="13"/>
-      <c r="C459" s="13"/>
-      <c r="D459" s="57"/>
-      <c r="E459" s="21"/>
-    </row>
-    <row r="460" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="B460" s="13"/>
-      <c r="C460" s="13"/>
-      <c r="D460" s="57"/>
-      <c r="E460" s="21"/>
+    <row r="459" spans="1:5" s="17" customFormat="1">
+      <c r="A459" s="17">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="C459" s="57"/>
+      <c r="D459" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E459" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" s="17" customFormat="1">
+      <c r="A460" s="17">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="C460" s="57"/>
+      <c r="D460" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E460" s="58" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="B461" s="13"/>
-      <c r="C461" s="13"/>
-      <c r="D461" s="57"/>
-      <c r="E461" s="21"/>
+      <c r="A461" s="17">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="C461" s="57"/>
+      <c r="D461" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E461" s="58" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
-      <c r="B462" s="13"/>
-      <c r="C462" s="13"/>
-      <c r="D462" s="57"/>
-      <c r="E462" s="21"/>
+      <c r="A462" s="17">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="C462" s="57"/>
+      <c r="D462" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E462" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="16.5">
+      <c r="A463" s="17">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="C463" s="57"/>
+      <c r="D463" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E463" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="17">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="C464" s="57"/>
+      <c r="D464" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E464" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="17">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="C465" s="57"/>
+      <c r="D465" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E465" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="17">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="C466" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="D466" s="57"/>
+      <c r="E466" s="61"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="17">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="C467" s="57"/>
+      <c r="D467" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E467" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="17">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="C468" s="57"/>
+      <c r="D468" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E468" s="58" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="16.5">
+      <c r="A469" s="17">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="C469" s="57"/>
+      <c r="D469" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E469" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="16.5">
+      <c r="A470" s="17">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="C470" s="57"/>
+      <c r="D470" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E470" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="16.5">
+      <c r="A471" s="17">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="C471" s="57"/>
+      <c r="D471" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E471" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="17">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="C472" s="57"/>
+      <c r="D472" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E472" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="17">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="C473" s="57"/>
+      <c r="D473" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E473" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="17">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="C474" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="D474" s="57"/>
+      <c r="E474" s="61"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="17">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="C475" s="57"/>
+      <c r="D475" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E475" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="17">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="C476" s="57"/>
+      <c r="D476" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E476" s="58" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="16.5">
+      <c r="A477" s="17">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="C477" s="57"/>
+      <c r="D477" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E477" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="16.5">
+      <c r="A478" s="17">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="C478" s="57"/>
+      <c r="D478" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E478" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="16.5">
+      <c r="A479" s="17">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="C479" s="57"/>
+      <c r="D479" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="E479" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="17">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="C480" s="57"/>
+      <c r="D480" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E480" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="17">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="C481" s="57"/>
+      <c r="D481" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E481" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="17">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="C482" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="D482" s="57"/>
+      <c r="E482" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="757">
   <si>
     <t>id|</t>
   </si>
@@ -4770,10 +4770,6 @@
   <si>
     <t>福袋--正常</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -5615,9 +5611,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7859,7 +7855,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C75" s="63">
         <v>1612828800</v>
@@ -7887,7 +7883,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C76" s="63">
         <v>1612828800</v>
@@ -7915,7 +7911,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C77" s="63">
         <v>1612828800</v>
@@ -8922,7 +8918,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D69" s="49">
         <v>1</v>
@@ -8936,7 +8932,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D70" s="63">
         <v>1</v>
@@ -9004,10 +9000,10 @@
   <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B453" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C489" sqref="C489"/>
+      <selection pane="bottomRight" activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15781,9 +15777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E480" sqref="E480"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E458" sqref="E458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22976,10 +22972,10 @@
       </c>
       <c r="C455" s="45"/>
       <c r="D455" s="54" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E455" s="46" t="s">
-        <v>726</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="16.5">
@@ -22991,10 +22987,10 @@
       </c>
       <c r="C456" s="45"/>
       <c r="D456" s="54" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E456" s="46" t="s">
-        <v>726</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="16.5">
@@ -23006,10 +23002,10 @@
       </c>
       <c r="C457" s="45"/>
       <c r="D457" s="54" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E457" s="46" t="s">
-        <v>726</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="16.5">
@@ -23021,10 +23017,10 @@
       </c>
       <c r="C458" s="45"/>
       <c r="D458" s="54" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E458" s="46" t="s">
-        <v>726</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:5" s="17" customFormat="1">
@@ -23039,7 +23035,7 @@
         <v>513</v>
       </c>
       <c r="E459" s="58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
@@ -23054,7 +23050,7 @@
         <v>451</v>
       </c>
       <c r="E460" s="58" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -23066,10 +23062,10 @@
       </c>
       <c r="C461" s="57"/>
       <c r="D461" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E461" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -23081,10 +23077,10 @@
       </c>
       <c r="C462" s="57"/>
       <c r="D462" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E462" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
@@ -23096,10 +23092,10 @@
       </c>
       <c r="C463" s="57"/>
       <c r="D463" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E463" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -23114,7 +23110,7 @@
         <v>451</v>
       </c>
       <c r="E464" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -23129,7 +23125,7 @@
         <v>451</v>
       </c>
       <c r="E465" s="58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -23140,7 +23136,7 @@
         <v>11941</v>
       </c>
       <c r="C466" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D466" s="57"/>
       <c r="E466" s="61"/>
@@ -23157,7 +23153,7 @@
         <v>513</v>
       </c>
       <c r="E467" s="58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -23172,7 +23168,7 @@
         <v>451</v>
       </c>
       <c r="E468" s="58" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
@@ -23184,10 +23180,10 @@
       </c>
       <c r="C469" s="57"/>
       <c r="D469" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E469" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -23199,10 +23195,10 @@
       </c>
       <c r="C470" s="57"/>
       <c r="D470" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E470" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -23214,10 +23210,10 @@
       </c>
       <c r="C471" s="57"/>
       <c r="D471" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E471" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -23232,7 +23228,7 @@
         <v>451</v>
       </c>
       <c r="E472" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -23247,7 +23243,7 @@
         <v>451</v>
       </c>
       <c r="E473" s="58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -23258,7 +23254,7 @@
         <v>11949</v>
       </c>
       <c r="C474" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D474" s="57"/>
       <c r="E474" s="61"/>
@@ -23275,7 +23271,7 @@
         <v>513</v>
       </c>
       <c r="E475" s="58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -23290,7 +23286,7 @@
         <v>451</v>
       </c>
       <c r="E476" s="58" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
@@ -23302,10 +23298,10 @@
       </c>
       <c r="C477" s="57"/>
       <c r="D477" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E477" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -23317,10 +23313,10 @@
       </c>
       <c r="C478" s="57"/>
       <c r="D478" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E478" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -23332,10 +23328,10 @@
       </c>
       <c r="C479" s="57"/>
       <c r="D479" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E479" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -23350,7 +23346,7 @@
         <v>451</v>
       </c>
       <c r="E480" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -23365,7 +23361,7 @@
         <v>451</v>
       </c>
       <c r="E481" s="58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -23376,7 +23372,7 @@
         <v>11957</v>
       </c>
       <c r="C482" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D482" s="57"/>
       <c r="E482" s="61"/>
@@ -24468,25 +24464,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="55" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>734</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="E1" s="55" t="s">
         <v>735</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>736</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>737</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -24511,21 +24507,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>741</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -24550,10 +24546,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8243,9 +8243,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9245,7 +9245,7 @@
         <v>757</v>
       </c>
       <c r="D71" s="71">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -9259,7 +9259,7 @@
         <v>30</v>
       </c>
       <c r="D72" s="71">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/box_exchange_server.xlsx
+++ b/config_2.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8182,10 +8182,10 @@
         <v>775</v>
       </c>
       <c r="C78" s="71">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="D78" s="71">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="E78" s="73">
         <v>70</v>
@@ -8210,10 +8210,10 @@
         <v>776</v>
       </c>
       <c r="C79" s="71">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="D79" s="71">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="E79" s="73">
         <v>71</v>
@@ -8243,9 +8243,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
